--- a/tools/etat_beninois/pssie-benin.xlsx
+++ b/tools/etat_beninois/pssie-benin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abder/mydev/intuitem/staging/ciso-assistant-community/tools/etat_beninois/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7414A3D-7D57-1449-AEF0-114941CC0BFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88936AC0-91F9-DA46-8A44-23AC5CFF1D94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4020" yWindow="-28140" windowWidth="50880" windowHeight="27980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="478">
   <si>
     <t>assessable</t>
   </si>
@@ -980,9 +980,6 @@
   </si>
   <si>
     <t>library_copyright</t>
-  </si>
-  <si>
-    <t>copyright mentions</t>
   </si>
   <si>
     <t>library_provider</t>
@@ -1683,6 +1680,16 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>© ASIN/ANSSI</t>
+  </si>
+  <si>
+    <t>annotation</t>
+  </si>
+  <si>
+    <t>Règle : 
+Les processus métiers et les services à externaliser dans une infrastructure cloud doivent être identifiés. Pour chaque processus ou service identifié, une analyse de risques doit être conduite pour évaluer l'impact lié à la perte de confidentialité, d'intégrité et de disponibilité des informations impliquées. Cette analyse est conduite en liaison avec l'ASSI et l'ANSSI.</t>
   </si>
 </sst>
 </file>
@@ -2104,7 +2111,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView zoomScale="209" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2119,7 +2126,7 @@
         <v>310</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2151,7 +2158,7 @@
         <v>315</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2159,7 +2166,7 @@
         <v>316</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2167,7 +2174,7 @@
         <v>317</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2175,77 +2182,77 @@
         <v>318</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>319</v>
+        <v>475</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="B10" s="18" t="s">
         <v>321</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
+        <v>326</v>
+      </c>
+      <c r="B15" s="18" t="s">
         <v>327</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="C15" s="1" t="s">
         <v>328</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="23" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2268,20 +2275,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F1000"/>
+  <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" zoomScale="165" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="4" max="4" width="52.83203125" customWidth="1"/>
     <col min="5" max="5" width="48.5" customWidth="1"/>
-    <col min="6" max="6" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2298,23 +2305,27 @@
         <v>4</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.15">
+        <v>476</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.15">
       <c r="B2" s="1">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="12"/>
-    </row>
-    <row r="3" spans="1:6" ht="48" x14ac:dyDescent="0.15">
+      <c r="G2" s="12"/>
+    </row>
+    <row r="3" spans="1:7" ht="48" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
       <c r="B3" s="1">
         <v>2</v>
@@ -2327,8 +2338,9 @@
         <v>7</v>
       </c>
       <c r="F3" s="12"/>
-    </row>
-    <row r="4" spans="1:6" ht="192" x14ac:dyDescent="0.15">
+      <c r="G3" s="12"/>
+    </row>
+    <row r="4" spans="1:7" ht="192" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -2342,13 +2354,16 @@
         <v>10</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="192" x14ac:dyDescent="0.15">
+        <v>350</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="192" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -2362,13 +2377,16 @@
         <v>12</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="224" x14ac:dyDescent="0.15">
+        <v>351</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="224" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -2382,13 +2400,16 @@
         <v>14</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="80" x14ac:dyDescent="0.15">
+        <v>350</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="80" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -2402,13 +2423,16 @@
         <v>16</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="80" x14ac:dyDescent="0.15">
+        <v>350</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="80" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -2425,10 +2449,13 @@
         <v>19</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="112" x14ac:dyDescent="0.15">
+        <v>351</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="112" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -2445,23 +2472,27 @@
         <v>22</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.15">
+        <v>350</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="16" x14ac:dyDescent="0.15">
       <c r="B10" s="1">
         <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="12"/>
-    </row>
-    <row r="11" spans="1:6" ht="32" x14ac:dyDescent="0.15">
+      <c r="G10" s="12"/>
+    </row>
+    <row r="11" spans="1:7" ht="32" x14ac:dyDescent="0.15">
       <c r="B11" s="1">
         <v>2</v>
       </c>
@@ -2473,8 +2504,9 @@
         <v>25</v>
       </c>
       <c r="F11" s="12"/>
-    </row>
-    <row r="12" spans="1:6" ht="176" x14ac:dyDescent="0.15">
+      <c r="G11" s="12"/>
+    </row>
+    <row r="12" spans="1:7" ht="176" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -2488,13 +2520,16 @@
         <v>27</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="224" x14ac:dyDescent="0.15">
+        <v>350</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="224" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
@@ -2508,13 +2543,16 @@
         <v>29</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="80" x14ac:dyDescent="0.15">
+        <v>350</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="80" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
@@ -2528,13 +2566,16 @@
         <v>31</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="144" x14ac:dyDescent="0.15">
+        <v>351</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="144" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
@@ -2548,13 +2589,16 @@
         <v>33</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="208" x14ac:dyDescent="0.15">
+        <v>350</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="208" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
@@ -2568,13 +2612,16 @@
         <v>35</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="80" x14ac:dyDescent="0.15">
+        <v>351</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="80" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
@@ -2588,26 +2635,30 @@
         <v>37</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="16" x14ac:dyDescent="0.15">
+        <v>351</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="16" x14ac:dyDescent="0.15">
       <c r="B18" s="1">
         <v>1</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>38</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="12"/>
-    </row>
-    <row r="19" spans="1:6" ht="48" x14ac:dyDescent="0.15">
+      <c r="G18" s="12"/>
+    </row>
+    <row r="19" spans="1:7" ht="48" x14ac:dyDescent="0.15">
       <c r="A19" s="1"/>
       <c r="B19" s="1">
         <v>2</v>
@@ -2620,8 +2671,9 @@
         <v>40</v>
       </c>
       <c r="F19" s="12"/>
-    </row>
-    <row r="20" spans="1:6" ht="96" x14ac:dyDescent="0.15">
+      <c r="G19" s="12"/>
+    </row>
+    <row r="20" spans="1:7" ht="96" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>8</v>
       </c>
@@ -2635,13 +2687,16 @@
         <v>42</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="48" x14ac:dyDescent="0.15">
+        <v>350</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="48" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
@@ -2655,13 +2710,16 @@
         <v>44</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="112" x14ac:dyDescent="0.15">
+        <v>350</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="112" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>8</v>
       </c>
@@ -2675,13 +2733,16 @@
         <v>46</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="32" x14ac:dyDescent="0.15">
+        <v>351</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="32" x14ac:dyDescent="0.15">
       <c r="A23" s="1"/>
       <c r="B23" s="1">
         <v>2</v>
@@ -2694,8 +2755,9 @@
         <v>48</v>
       </c>
       <c r="F23" s="12"/>
-    </row>
-    <row r="24" spans="1:6" ht="160" x14ac:dyDescent="0.15">
+      <c r="G23" s="12"/>
+    </row>
+    <row r="24" spans="1:7" ht="160" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>8</v>
       </c>
@@ -2709,13 +2771,16 @@
         <v>50</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="80" x14ac:dyDescent="0.15">
+        <v>350</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="80" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>8</v>
       </c>
@@ -2729,13 +2794,16 @@
         <v>52</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="16" x14ac:dyDescent="0.15">
+        <v>350</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="16" x14ac:dyDescent="0.15">
       <c r="A26" s="1"/>
       <c r="B26" s="1">
         <v>2</v>
@@ -2748,8 +2816,9 @@
         <v>54</v>
       </c>
       <c r="F26" s="12"/>
-    </row>
-    <row r="27" spans="1:6" ht="64" x14ac:dyDescent="0.15">
+      <c r="G26" s="12"/>
+    </row>
+    <row r="27" spans="1:7" ht="64" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>8</v>
       </c>
@@ -2763,13 +2832,16 @@
         <v>56</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="32" x14ac:dyDescent="0.15">
+        <v>350</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="32" x14ac:dyDescent="0.15">
       <c r="A28" s="1"/>
       <c r="B28" s="1">
         <v>2</v>
@@ -2782,8 +2854,9 @@
         <v>58</v>
       </c>
       <c r="F28" s="12"/>
-    </row>
-    <row r="29" spans="1:6" ht="96" x14ac:dyDescent="0.15">
+      <c r="G28" s="12"/>
+    </row>
+    <row r="29" spans="1:7" ht="96" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>8</v>
       </c>
@@ -2797,13 +2870,16 @@
         <v>60</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="80" x14ac:dyDescent="0.15">
+        <v>350</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="80" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>8</v>
       </c>
@@ -2817,13 +2893,16 @@
         <v>62</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="128" x14ac:dyDescent="0.15">
+        <v>350</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="128" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>8</v>
       </c>
@@ -2837,26 +2916,30 @@
         <v>64</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="16" x14ac:dyDescent="0.15">
+        <v>351</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="16" x14ac:dyDescent="0.15">
       <c r="B32" s="1">
         <v>1</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>65</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="12"/>
-    </row>
-    <row r="33" spans="1:6" ht="16" x14ac:dyDescent="0.15">
+      <c r="G32" s="12"/>
+    </row>
+    <row r="33" spans="1:7" ht="16" x14ac:dyDescent="0.15">
       <c r="A33" s="1"/>
       <c r="B33" s="1">
         <v>2</v>
@@ -2869,8 +2952,9 @@
         <v>67</v>
       </c>
       <c r="F33" s="12"/>
-    </row>
-    <row r="34" spans="1:6" ht="112" x14ac:dyDescent="0.15">
+      <c r="G33" s="12"/>
+    </row>
+    <row r="34" spans="1:7" ht="112" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>8</v>
       </c>
@@ -2884,13 +2968,16 @@
         <v>69</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="96" x14ac:dyDescent="0.15">
+        <v>350</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="96" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>8</v>
       </c>
@@ -2904,13 +2991,16 @@
         <v>71</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="96" x14ac:dyDescent="0.15">
+        <v>350</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="96" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>8</v>
       </c>
@@ -2927,10 +3017,13 @@
         <v>74</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="144" x14ac:dyDescent="0.15">
+        <v>350</v>
+      </c>
+      <c r="G36" s="12" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="144" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>8</v>
       </c>
@@ -2944,13 +3037,16 @@
         <v>76</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="96" x14ac:dyDescent="0.15">
+        <v>350</v>
+      </c>
+      <c r="G37" s="12" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="96" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>8</v>
       </c>
@@ -2964,13 +3060,16 @@
         <v>78</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="144" x14ac:dyDescent="0.15">
+        <v>350</v>
+      </c>
+      <c r="G38" s="12" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="144" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
         <v>8</v>
       </c>
@@ -2984,13 +3083,16 @@
         <v>80</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="128" x14ac:dyDescent="0.15">
+        <v>350</v>
+      </c>
+      <c r="G39" s="12" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="128" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>8</v>
       </c>
@@ -3001,16 +3103,19 @@
         <v>81</v>
       </c>
       <c r="D40" s="22" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="80" x14ac:dyDescent="0.15">
+        <v>350</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="80" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
         <v>8</v>
       </c>
@@ -3024,26 +3129,30 @@
         <v>83</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="16" x14ac:dyDescent="0.15">
+        <v>350</v>
+      </c>
+      <c r="G41" s="12" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="16" x14ac:dyDescent="0.15">
       <c r="B42" s="1">
         <v>1</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>84</v>
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="12"/>
-    </row>
-    <row r="43" spans="1:6" ht="48" x14ac:dyDescent="0.15">
+      <c r="G42" s="12"/>
+    </row>
+    <row r="43" spans="1:7" ht="48" x14ac:dyDescent="0.15">
       <c r="A43" s="1"/>
       <c r="B43" s="1">
         <v>2</v>
@@ -3056,8 +3165,9 @@
         <v>40</v>
       </c>
       <c r="F43" s="12"/>
-    </row>
-    <row r="44" spans="1:6" ht="96" x14ac:dyDescent="0.15">
+      <c r="G43" s="12"/>
+    </row>
+    <row r="44" spans="1:7" ht="96" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
         <v>8</v>
       </c>
@@ -3071,13 +3181,16 @@
         <v>87</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F44" s="12" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="96" x14ac:dyDescent="0.15">
+        <v>350</v>
+      </c>
+      <c r="G44" s="12" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="96" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
         <v>8</v>
       </c>
@@ -3091,13 +3204,16 @@
         <v>89</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F45" s="12" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="160" x14ac:dyDescent="0.15">
+        <v>350</v>
+      </c>
+      <c r="G45" s="12" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="160" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
         <v>8</v>
       </c>
@@ -3111,13 +3227,16 @@
         <v>91</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F46" s="12" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="64" x14ac:dyDescent="0.15">
+        <v>350</v>
+      </c>
+      <c r="G46" s="12" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="64" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
         <v>8</v>
       </c>
@@ -3131,13 +3250,16 @@
         <v>93</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="64" x14ac:dyDescent="0.15">
+        <v>350</v>
+      </c>
+      <c r="G47" s="12" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="64" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
         <v>8</v>
       </c>
@@ -3151,13 +3273,16 @@
         <v>95</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F48" s="12" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="96" x14ac:dyDescent="0.15">
+        <v>350</v>
+      </c>
+      <c r="G48" s="12" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="96" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
         <v>8</v>
       </c>
@@ -3171,13 +3296,16 @@
         <v>97</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F49" s="12" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="64" x14ac:dyDescent="0.15">
+        <v>350</v>
+      </c>
+      <c r="G49" s="12" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="64" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
         <v>8</v>
       </c>
@@ -3191,13 +3319,16 @@
         <v>99</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F50" s="12" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="32" x14ac:dyDescent="0.15">
+        <v>350</v>
+      </c>
+      <c r="G50" s="12" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="32" x14ac:dyDescent="0.15">
       <c r="A51" s="1"/>
       <c r="B51" s="1">
         <v>2</v>
@@ -3210,8 +3341,9 @@
         <v>101</v>
       </c>
       <c r="F51" s="12"/>
-    </row>
-    <row r="52" spans="1:6" ht="128" x14ac:dyDescent="0.15">
+      <c r="G51" s="12"/>
+    </row>
+    <row r="52" spans="1:7" ht="128" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
         <v>8</v>
       </c>
@@ -3225,13 +3357,16 @@
         <v>103</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F52" s="12" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="64" x14ac:dyDescent="0.15">
+        <v>350</v>
+      </c>
+      <c r="G52" s="12" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="64" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
         <v>8</v>
       </c>
@@ -3245,13 +3380,16 @@
         <v>105</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F53" s="12" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="96" x14ac:dyDescent="0.15">
+        <v>350</v>
+      </c>
+      <c r="G53" s="12" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="96" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
         <v>8</v>
       </c>
@@ -3265,13 +3403,16 @@
         <v>107</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F54" s="12" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="80" x14ac:dyDescent="0.15">
+        <v>350</v>
+      </c>
+      <c r="G54" s="12" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="80" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
         <v>8</v>
       </c>
@@ -3285,13 +3426,16 @@
         <v>109</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F55" s="12" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="96" x14ac:dyDescent="0.15">
+        <v>350</v>
+      </c>
+      <c r="G55" s="12" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="96" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
         <v>8</v>
       </c>
@@ -3305,26 +3449,30 @@
         <v>111</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F56" s="12" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="16" x14ac:dyDescent="0.15">
+        <v>350</v>
+      </c>
+      <c r="G56" s="12" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="16" x14ac:dyDescent="0.15">
       <c r="B57" s="1">
         <v>1</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>112</v>
       </c>
       <c r="E57" s="4"/>
       <c r="F57" s="12"/>
-    </row>
-    <row r="58" spans="1:6" ht="32" x14ac:dyDescent="0.15">
+      <c r="G57" s="12"/>
+    </row>
+    <row r="58" spans="1:7" ht="32" x14ac:dyDescent="0.15">
       <c r="A58" s="1"/>
       <c r="B58" s="1">
         <v>2</v>
@@ -3337,8 +3485,9 @@
         <v>114</v>
       </c>
       <c r="F58" s="12"/>
-    </row>
-    <row r="59" spans="1:6" ht="128" x14ac:dyDescent="0.15">
+      <c r="G58" s="12"/>
+    </row>
+    <row r="59" spans="1:7" ht="128" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
         <v>8</v>
       </c>
@@ -3352,13 +3501,16 @@
         <v>116</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F59" s="12" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="112" x14ac:dyDescent="0.15">
+        <v>350</v>
+      </c>
+      <c r="G59" s="12" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="112" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
         <v>8</v>
       </c>
@@ -3372,13 +3524,16 @@
         <v>118</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F60" s="12" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="80" x14ac:dyDescent="0.15">
+        <v>350</v>
+      </c>
+      <c r="G60" s="12" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="80" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
         <v>8</v>
       </c>
@@ -3392,13 +3547,16 @@
         <v>120</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F61" s="12" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="98" x14ac:dyDescent="0.15">
+        <v>350</v>
+      </c>
+      <c r="G61" s="12" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="98" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
         <v>8</v>
       </c>
@@ -3412,13 +3570,16 @@
         <v>122</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F62" s="12" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="84" x14ac:dyDescent="0.15">
+        <v>350</v>
+      </c>
+      <c r="G62" s="12" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="84" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
         <v>8</v>
       </c>
@@ -3432,13 +3593,16 @@
         <v>124</v>
       </c>
       <c r="E63" s="10" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F63" s="12" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="84" x14ac:dyDescent="0.15">
+        <v>350</v>
+      </c>
+      <c r="G63" s="12" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="84" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
         <v>8</v>
       </c>
@@ -3452,13 +3616,16 @@
         <v>126</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F64" s="12" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="112" x14ac:dyDescent="0.15">
+        <v>350</v>
+      </c>
+      <c r="G64" s="12" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="112" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
         <v>8</v>
       </c>
@@ -3472,13 +3639,16 @@
         <v>128</v>
       </c>
       <c r="E65" s="10" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F65" s="12" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="126" x14ac:dyDescent="0.15">
+        <v>350</v>
+      </c>
+      <c r="G65" s="12" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="126" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
         <v>8</v>
       </c>
@@ -3492,13 +3662,16 @@
         <v>130</v>
       </c>
       <c r="E66" s="10" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F66" s="12" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="56" x14ac:dyDescent="0.15">
+        <v>350</v>
+      </c>
+      <c r="G66" s="12" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="56" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
         <v>8</v>
       </c>
@@ -3512,26 +3685,30 @@
         <v>132</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F67" s="12" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="16" x14ac:dyDescent="0.15">
+        <v>350</v>
+      </c>
+      <c r="G67" s="12" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="16" x14ac:dyDescent="0.15">
       <c r="B68" s="1">
         <v>1</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>133</v>
       </c>
       <c r="E68" s="10"/>
       <c r="F68" s="12"/>
-    </row>
-    <row r="69" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+      <c r="G68" s="12"/>
+    </row>
+    <row r="69" spans="1:7" ht="28" x14ac:dyDescent="0.15">
       <c r="A69" s="1"/>
       <c r="B69" s="1">
         <v>2</v>
@@ -3544,7 +3721,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="70" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:7" ht="70" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
         <v>8</v>
       </c>
@@ -3558,13 +3735,16 @@
         <v>137</v>
       </c>
       <c r="E70" s="10" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F70" s="12" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="126" x14ac:dyDescent="0.15">
+        <v>350</v>
+      </c>
+      <c r="G70" s="12" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="126" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
         <v>8</v>
       </c>
@@ -3578,13 +3758,16 @@
         <v>139</v>
       </c>
       <c r="E71" s="10" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F71" s="12" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="182" x14ac:dyDescent="0.15">
+        <v>350</v>
+      </c>
+      <c r="G71" s="12" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="182" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
         <v>8</v>
       </c>
@@ -3598,13 +3781,16 @@
         <v>141</v>
       </c>
       <c r="E72" s="10" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F72" s="12" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="70" x14ac:dyDescent="0.15">
+        <v>350</v>
+      </c>
+      <c r="G72" s="12" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="70" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
         <v>8</v>
       </c>
@@ -3621,10 +3807,13 @@
         <v>144</v>
       </c>
       <c r="F73" s="12" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="98" x14ac:dyDescent="0.15">
+        <v>350</v>
+      </c>
+      <c r="G73" s="12" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="98" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
         <v>8</v>
       </c>
@@ -3638,13 +3827,16 @@
         <v>146</v>
       </c>
       <c r="E74" s="10" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F74" s="12" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="84" x14ac:dyDescent="0.15">
+        <v>350</v>
+      </c>
+      <c r="G74" s="12" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="84" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
         <v>8</v>
       </c>
@@ -3658,13 +3850,16 @@
         <v>148</v>
       </c>
       <c r="E75" s="10" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F75" s="12" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="56" x14ac:dyDescent="0.15">
+        <v>351</v>
+      </c>
+      <c r="G75" s="12" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="56" x14ac:dyDescent="0.15">
       <c r="A76" s="1" t="s">
         <v>8</v>
       </c>
@@ -3678,13 +3873,16 @@
         <v>150</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F76" s="12" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="70" x14ac:dyDescent="0.15">
+        <v>351</v>
+      </c>
+      <c r="G76" s="12" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="70" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
         <v>8</v>
       </c>
@@ -3698,13 +3896,16 @@
         <v>152</v>
       </c>
       <c r="E77" s="10" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F77" s="12" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="70" x14ac:dyDescent="0.15">
+        <v>351</v>
+      </c>
+      <c r="G77" s="12" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="70" x14ac:dyDescent="0.15">
       <c r="A78" s="1" t="s">
         <v>8</v>
       </c>
@@ -3718,26 +3919,30 @@
         <v>154</v>
       </c>
       <c r="E78" s="10" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F78" s="12" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="16" x14ac:dyDescent="0.15">
+        <v>351</v>
+      </c>
+      <c r="G78" s="12" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="16" x14ac:dyDescent="0.15">
       <c r="B79" s="1">
         <v>1</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>155</v>
       </c>
       <c r="E79" s="10"/>
       <c r="F79" s="12"/>
-    </row>
-    <row r="80" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+      <c r="G79" s="12"/>
+    </row>
+    <row r="80" spans="1:7" ht="28" x14ac:dyDescent="0.15">
       <c r="A80" s="1"/>
       <c r="B80" s="1">
         <v>2</v>
@@ -3750,8 +3955,9 @@
         <v>157</v>
       </c>
       <c r="F80" s="12"/>
-    </row>
-    <row r="81" spans="1:6" ht="70" x14ac:dyDescent="0.15">
+      <c r="G80" s="12"/>
+    </row>
+    <row r="81" spans="1:7" ht="70" x14ac:dyDescent="0.15">
       <c r="A81" s="1" t="s">
         <v>8</v>
       </c>
@@ -3765,13 +3971,16 @@
         <v>159</v>
       </c>
       <c r="E81" s="10" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F81" s="12" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="70" x14ac:dyDescent="0.15">
+        <v>350</v>
+      </c>
+      <c r="G81" s="12" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="70" x14ac:dyDescent="0.15">
       <c r="A82" s="1" t="s">
         <v>8</v>
       </c>
@@ -3785,13 +3994,16 @@
         <v>161</v>
       </c>
       <c r="E82" s="10" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F82" s="12" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="42" x14ac:dyDescent="0.15">
+        <v>351</v>
+      </c>
+      <c r="G82" s="12" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="42" x14ac:dyDescent="0.15">
       <c r="A83" s="1" t="s">
         <v>8</v>
       </c>
@@ -3805,13 +4017,16 @@
         <v>163</v>
       </c>
       <c r="E83" s="10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F83" s="12" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="42" x14ac:dyDescent="0.15">
+        <v>351</v>
+      </c>
+      <c r="G83" s="12" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="42" x14ac:dyDescent="0.15">
       <c r="A84" s="1" t="s">
         <v>8</v>
       </c>
@@ -3825,13 +4040,16 @@
         <v>165</v>
       </c>
       <c r="E84" s="10" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F84" s="12" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="56" x14ac:dyDescent="0.15">
+        <v>351</v>
+      </c>
+      <c r="G84" s="12" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="56" x14ac:dyDescent="0.15">
       <c r="A85" s="1" t="s">
         <v>8</v>
       </c>
@@ -3845,26 +4063,30 @@
         <v>167</v>
       </c>
       <c r="E85" s="10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F85" s="12" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" ht="16" x14ac:dyDescent="0.15">
+        <v>351</v>
+      </c>
+      <c r="G85" s="12" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="16" x14ac:dyDescent="0.15">
       <c r="B86" s="1">
         <v>1</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D86" s="3" t="s">
         <v>168</v>
       </c>
       <c r="E86" s="10"/>
       <c r="F86" s="12"/>
-    </row>
-    <row r="87" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+      <c r="G86" s="12"/>
+    </row>
+    <row r="87" spans="1:7" ht="28" x14ac:dyDescent="0.15">
       <c r="A87" s="1"/>
       <c r="B87" s="1">
         <v>2</v>
@@ -3877,8 +4099,9 @@
         <v>170</v>
       </c>
       <c r="F87" s="12"/>
-    </row>
-    <row r="88" spans="1:6" ht="112" x14ac:dyDescent="0.15">
+      <c r="G87" s="12"/>
+    </row>
+    <row r="88" spans="1:7" ht="112" x14ac:dyDescent="0.15">
       <c r="A88" s="1" t="s">
         <v>8</v>
       </c>
@@ -3892,13 +4115,16 @@
         <v>172</v>
       </c>
       <c r="E88" s="10" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F88" s="12" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" ht="56" x14ac:dyDescent="0.15">
+        <v>350</v>
+      </c>
+      <c r="G88" s="12" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="56" x14ac:dyDescent="0.15">
       <c r="A89" s="1" t="s">
         <v>8</v>
       </c>
@@ -3912,13 +4138,16 @@
         <v>174</v>
       </c>
       <c r="E89" s="10" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F89" s="12" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" ht="56" x14ac:dyDescent="0.15">
+        <v>350</v>
+      </c>
+      <c r="G89" s="12" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="56" x14ac:dyDescent="0.15">
       <c r="A90" s="1" t="s">
         <v>8</v>
       </c>
@@ -3932,13 +4161,16 @@
         <v>176</v>
       </c>
       <c r="E90" s="10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F90" s="12" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" ht="70" x14ac:dyDescent="0.15">
+        <v>350</v>
+      </c>
+      <c r="G90" s="12" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="70" x14ac:dyDescent="0.15">
       <c r="A91" s="1" t="s">
         <v>8</v>
       </c>
@@ -3952,13 +4184,16 @@
         <v>178</v>
       </c>
       <c r="E91" s="10" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F91" s="12" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" ht="84" x14ac:dyDescent="0.15">
+        <v>351</v>
+      </c>
+      <c r="G91" s="12" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="84" x14ac:dyDescent="0.15">
       <c r="A92" s="1" t="s">
         <v>8</v>
       </c>
@@ -3972,13 +4207,16 @@
         <v>180</v>
       </c>
       <c r="E92" s="10" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F92" s="12" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" ht="140" x14ac:dyDescent="0.15">
+        <v>351</v>
+      </c>
+      <c r="G92" s="12" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="140" x14ac:dyDescent="0.15">
       <c r="A93" s="1" t="s">
         <v>8</v>
       </c>
@@ -3992,13 +4230,16 @@
         <v>182</v>
       </c>
       <c r="E93" s="10" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F93" s="12" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" ht="70" x14ac:dyDescent="0.15">
+        <v>350</v>
+      </c>
+      <c r="G93" s="12" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="70" x14ac:dyDescent="0.15">
       <c r="A94" s="1" t="s">
         <v>8</v>
       </c>
@@ -4012,13 +4253,16 @@
         <v>184</v>
       </c>
       <c r="E94" s="10" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F94" s="12" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" ht="154" x14ac:dyDescent="0.15">
+        <v>350</v>
+      </c>
+      <c r="G94" s="12" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="154" x14ac:dyDescent="0.15">
       <c r="A95" s="1" t="s">
         <v>8</v>
       </c>
@@ -4032,13 +4276,16 @@
         <v>148</v>
       </c>
       <c r="E95" s="10" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F95" s="12" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" ht="112" x14ac:dyDescent="0.15">
+        <v>350</v>
+      </c>
+      <c r="G95" s="12" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="112" x14ac:dyDescent="0.15">
       <c r="A96" s="1" t="s">
         <v>8</v>
       </c>
@@ -4052,13 +4299,16 @@
         <v>187</v>
       </c>
       <c r="E96" s="10" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F96" s="12" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" ht="84" x14ac:dyDescent="0.15">
+        <v>350</v>
+      </c>
+      <c r="G96" s="12" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="84" x14ac:dyDescent="0.15">
       <c r="A97" s="1" t="s">
         <v>8</v>
       </c>
@@ -4072,13 +4322,16 @@
         <v>189</v>
       </c>
       <c r="E97" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F97" s="12" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" ht="140" x14ac:dyDescent="0.15">
+        <v>350</v>
+      </c>
+      <c r="G97" s="12" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="140" x14ac:dyDescent="0.15">
       <c r="A98" s="1" t="s">
         <v>8</v>
       </c>
@@ -4092,13 +4345,16 @@
         <v>191</v>
       </c>
       <c r="E98" s="10" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F98" s="12" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" ht="98" x14ac:dyDescent="0.15">
+        <v>350</v>
+      </c>
+      <c r="G98" s="12" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="98" x14ac:dyDescent="0.15">
       <c r="A99" s="1" t="s">
         <v>8</v>
       </c>
@@ -4112,26 +4368,30 @@
         <v>193</v>
       </c>
       <c r="E99" s="10" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F99" s="12" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+        <v>350</v>
+      </c>
+      <c r="G99" s="12" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="28" x14ac:dyDescent="0.15">
       <c r="B100" s="1">
         <v>1</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D100" s="13" t="s">
         <v>194</v>
       </c>
       <c r="E100" s="10"/>
       <c r="F100" s="12"/>
-    </row>
-    <row r="101" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+      <c r="G100" s="12"/>
+    </row>
+    <row r="101" spans="1:7" ht="28" x14ac:dyDescent="0.15">
       <c r="A101" s="1"/>
       <c r="B101" s="1">
         <v>2</v>
@@ -4144,8 +4404,9 @@
         <v>196</v>
       </c>
       <c r="F101" s="12"/>
-    </row>
-    <row r="102" spans="1:6" ht="168" x14ac:dyDescent="0.15">
+      <c r="G101" s="12"/>
+    </row>
+    <row r="102" spans="1:7" ht="168" x14ac:dyDescent="0.15">
       <c r="A102" s="1" t="s">
         <v>8</v>
       </c>
@@ -4159,13 +4420,16 @@
         <v>198</v>
       </c>
       <c r="E102" s="10" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F102" s="12" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" ht="70" x14ac:dyDescent="0.15">
+        <v>350</v>
+      </c>
+      <c r="G102" s="12" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="70" x14ac:dyDescent="0.15">
       <c r="A103" s="1" t="s">
         <v>8</v>
       </c>
@@ -4179,13 +4443,16 @@
         <v>200</v>
       </c>
       <c r="E103" s="10" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F103" s="12" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" ht="84" x14ac:dyDescent="0.15">
+        <v>350</v>
+      </c>
+      <c r="G103" s="12" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="84" x14ac:dyDescent="0.15">
       <c r="A104" s="1" t="s">
         <v>8</v>
       </c>
@@ -4199,13 +4466,16 @@
         <v>202</v>
       </c>
       <c r="E104" s="10" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F104" s="12" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" ht="126" x14ac:dyDescent="0.15">
+        <v>351</v>
+      </c>
+      <c r="G104" s="12" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="126" x14ac:dyDescent="0.15">
       <c r="A105" s="1" t="s">
         <v>8</v>
       </c>
@@ -4219,13 +4489,16 @@
         <v>204</v>
       </c>
       <c r="E105" s="10" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F105" s="12" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" ht="112" x14ac:dyDescent="0.15">
+        <v>351</v>
+      </c>
+      <c r="G105" s="12" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="112" x14ac:dyDescent="0.15">
       <c r="A106" s="1" t="s">
         <v>8</v>
       </c>
@@ -4239,13 +4512,16 @@
         <v>206</v>
       </c>
       <c r="E106" s="10" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F106" s="12" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" ht="182" x14ac:dyDescent="0.15">
+        <v>351</v>
+      </c>
+      <c r="G106" s="12" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="182" x14ac:dyDescent="0.15">
       <c r="A107" s="1" t="s">
         <v>8</v>
       </c>
@@ -4259,13 +4535,16 @@
         <v>208</v>
       </c>
       <c r="E107" s="10" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F107" s="12" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" ht="168" x14ac:dyDescent="0.15">
+        <v>350</v>
+      </c>
+      <c r="G107" s="12" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="168" x14ac:dyDescent="0.15">
       <c r="A108" s="1" t="s">
         <v>8</v>
       </c>
@@ -4279,13 +4558,16 @@
         <v>210</v>
       </c>
       <c r="E108" s="10" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F108" s="12" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" ht="56" x14ac:dyDescent="0.15">
+        <v>351</v>
+      </c>
+      <c r="G108" s="12" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="56" x14ac:dyDescent="0.15">
       <c r="A109" s="1" t="s">
         <v>8</v>
       </c>
@@ -4299,26 +4581,30 @@
         <v>212</v>
       </c>
       <c r="E109" s="10" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F109" s="12" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+        <v>351</v>
+      </c>
+      <c r="G109" s="12" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B110" s="1">
         <v>1</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D110" s="13" t="s">
         <v>213</v>
       </c>
       <c r="E110" s="10"/>
       <c r="F110" s="12"/>
-    </row>
-    <row r="111" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+      <c r="G110" s="12"/>
+    </row>
+    <row r="111" spans="1:7" ht="28" x14ac:dyDescent="0.15">
       <c r="A111" s="1"/>
       <c r="B111" s="1">
         <v>2</v>
@@ -4331,8 +4617,9 @@
         <v>215</v>
       </c>
       <c r="F111" s="12"/>
-    </row>
-    <row r="112" spans="1:6" ht="140" x14ac:dyDescent="0.15">
+      <c r="G111" s="12"/>
+    </row>
+    <row r="112" spans="1:7" ht="140" x14ac:dyDescent="0.15">
       <c r="A112" s="1" t="s">
         <v>8</v>
       </c>
@@ -4346,13 +4633,16 @@
         <v>217</v>
       </c>
       <c r="E112" s="10" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F112" s="12" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" ht="42" x14ac:dyDescent="0.15">
+        <v>350</v>
+      </c>
+      <c r="G112" s="12" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="42" x14ac:dyDescent="0.15">
       <c r="A113" s="1" t="s">
         <v>8</v>
       </c>
@@ -4366,26 +4656,30 @@
         <v>219</v>
       </c>
       <c r="E113" s="10" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F113" s="12" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+        <v>350</v>
+      </c>
+      <c r="G113" s="12" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B114" s="1">
         <v>1</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D114" s="13" t="s">
         <v>220</v>
       </c>
       <c r="E114" s="10"/>
       <c r="F114" s="12"/>
-    </row>
-    <row r="115" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="G114" s="12"/>
+    </row>
+    <row r="115" spans="1:7" ht="15" x14ac:dyDescent="0.15">
       <c r="A115" s="1"/>
       <c r="B115" s="1">
         <v>2</v>
@@ -4398,8 +4692,9 @@
         <v>222</v>
       </c>
       <c r="F115" s="12"/>
-    </row>
-    <row r="116" spans="1:6" ht="70" x14ac:dyDescent="0.15">
+      <c r="G115" s="12"/>
+    </row>
+    <row r="116" spans="1:7" ht="70" x14ac:dyDescent="0.15">
       <c r="A116" s="1" t="s">
         <v>8</v>
       </c>
@@ -4413,13 +4708,16 @@
         <v>224</v>
       </c>
       <c r="E116" s="10" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F116" s="12" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" ht="196" x14ac:dyDescent="0.15">
+        <v>350</v>
+      </c>
+      <c r="G116" s="12" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="196" x14ac:dyDescent="0.15">
       <c r="A117" s="1" t="s">
         <v>8</v>
       </c>
@@ -4433,13 +4731,16 @@
         <v>226</v>
       </c>
       <c r="E117" s="10" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F117" s="12" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" ht="154" x14ac:dyDescent="0.15">
+        <v>350</v>
+      </c>
+      <c r="G117" s="12" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" ht="154" x14ac:dyDescent="0.15">
       <c r="A118" s="1" t="s">
         <v>8</v>
       </c>
@@ -4453,13 +4754,16 @@
         <v>228</v>
       </c>
       <c r="E118" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F118" s="12" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" ht="84" x14ac:dyDescent="0.15">
+        <v>351</v>
+      </c>
+      <c r="G118" s="12" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" ht="84" x14ac:dyDescent="0.15">
       <c r="A119" s="1" t="s">
         <v>8</v>
       </c>
@@ -4473,13 +4777,16 @@
         <v>230</v>
       </c>
       <c r="E119" s="10" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F119" s="12" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" ht="112" x14ac:dyDescent="0.15">
+        <v>350</v>
+      </c>
+      <c r="G119" s="12" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" ht="112" x14ac:dyDescent="0.15">
       <c r="A120" s="1" t="s">
         <v>8</v>
       </c>
@@ -4493,13 +4800,16 @@
         <v>232</v>
       </c>
       <c r="E120" s="10" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F120" s="12" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" ht="56" x14ac:dyDescent="0.15">
+        <v>350</v>
+      </c>
+      <c r="G120" s="12" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="56" x14ac:dyDescent="0.15">
       <c r="A121" s="1" t="s">
         <v>8</v>
       </c>
@@ -4513,13 +4823,16 @@
         <v>234</v>
       </c>
       <c r="E121" s="10" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F121" s="12" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" ht="84" x14ac:dyDescent="0.15">
+        <v>350</v>
+      </c>
+      <c r="G121" s="12" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="84" x14ac:dyDescent="0.15">
       <c r="A122" s="1" t="s">
         <v>8</v>
       </c>
@@ -4533,26 +4846,30 @@
         <v>236</v>
       </c>
       <c r="E122" s="10" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F122" s="12" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+        <v>350</v>
+      </c>
+      <c r="G122" s="12" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B123" s="1">
         <v>1</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D123" s="13" t="s">
         <v>237</v>
       </c>
       <c r="E123" s="10"/>
       <c r="F123" s="12"/>
-    </row>
-    <row r="124" spans="1:6" ht="42" x14ac:dyDescent="0.15">
+      <c r="G123" s="12"/>
+    </row>
+    <row r="124" spans="1:7" ht="42" x14ac:dyDescent="0.15">
       <c r="A124" s="1"/>
       <c r="B124" s="1">
         <v>2</v>
@@ -4565,8 +4882,9 @@
         <v>239</v>
       </c>
       <c r="F124" s="12"/>
-    </row>
-    <row r="125" spans="1:6" ht="182" x14ac:dyDescent="0.15">
+      <c r="G124" s="12"/>
+    </row>
+    <row r="125" spans="1:7" ht="182" x14ac:dyDescent="0.15">
       <c r="A125" s="1" t="s">
         <v>8</v>
       </c>
@@ -4580,13 +4898,16 @@
         <v>241</v>
       </c>
       <c r="E125" s="10" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F125" s="12" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" ht="154" x14ac:dyDescent="0.15">
+        <v>351</v>
+      </c>
+      <c r="G125" s="12" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" ht="154" x14ac:dyDescent="0.15">
       <c r="A126" s="1" t="s">
         <v>8</v>
       </c>
@@ -4600,13 +4921,16 @@
         <v>243</v>
       </c>
       <c r="E126" s="10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F126" s="12" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" ht="140" x14ac:dyDescent="0.15">
+        <v>350</v>
+      </c>
+      <c r="G126" s="12" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" ht="140" x14ac:dyDescent="0.15">
       <c r="A127" s="1" t="s">
         <v>8</v>
       </c>
@@ -4620,26 +4944,30 @@
         <v>226</v>
       </c>
       <c r="E127" s="10" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F127" s="12" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+        <v>350</v>
+      </c>
+      <c r="G127" s="12" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B128" s="1">
         <v>1</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D128" s="13" t="s">
         <v>245</v>
       </c>
       <c r="E128" s="10"/>
       <c r="F128" s="12"/>
-    </row>
-    <row r="129" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+      <c r="G128" s="12"/>
+    </row>
+    <row r="129" spans="1:7" ht="28" x14ac:dyDescent="0.15">
       <c r="A129" s="1"/>
       <c r="B129" s="1">
         <v>2</v>
@@ -4652,8 +4980,9 @@
         <v>196</v>
       </c>
       <c r="F129" s="12"/>
-    </row>
-    <row r="130" spans="1:6" ht="70" x14ac:dyDescent="0.15">
+      <c r="G129" s="12"/>
+    </row>
+    <row r="130" spans="1:7" ht="70" x14ac:dyDescent="0.15">
       <c r="A130" s="1" t="s">
         <v>8</v>
       </c>
@@ -4667,13 +4996,16 @@
         <v>248</v>
       </c>
       <c r="E130" s="10" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F130" s="12" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" ht="154" x14ac:dyDescent="0.15">
+        <v>350</v>
+      </c>
+      <c r="G130" s="12" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" ht="154" x14ac:dyDescent="0.15">
       <c r="A131" s="1" t="s">
         <v>8</v>
       </c>
@@ -4687,13 +5019,16 @@
         <v>250</v>
       </c>
       <c r="E131" s="10" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F131" s="12" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" ht="98" x14ac:dyDescent="0.15">
+        <v>350</v>
+      </c>
+      <c r="G131" s="12" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" ht="98" x14ac:dyDescent="0.15">
       <c r="A132" s="1" t="s">
         <v>8</v>
       </c>
@@ -4707,13 +5042,16 @@
         <v>252</v>
       </c>
       <c r="E132" s="10" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F132" s="12" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" ht="84" x14ac:dyDescent="0.15">
+        <v>350</v>
+      </c>
+      <c r="G132" s="12" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" ht="84" x14ac:dyDescent="0.15">
       <c r="A133" s="1" t="s">
         <v>8</v>
       </c>
@@ -4727,13 +5065,16 @@
         <v>254</v>
       </c>
       <c r="E133" s="10" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F133" s="12" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" ht="112" x14ac:dyDescent="0.15">
+        <v>350</v>
+      </c>
+      <c r="G133" s="12" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" ht="112" x14ac:dyDescent="0.15">
       <c r="A134" s="1" t="s">
         <v>8</v>
       </c>
@@ -4747,13 +5088,16 @@
         <v>256</v>
       </c>
       <c r="E134" s="10" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F134" s="12" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" ht="84" x14ac:dyDescent="0.15">
+        <v>350</v>
+      </c>
+      <c r="G134" s="12" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" ht="84" x14ac:dyDescent="0.15">
       <c r="A135" s="1" t="s">
         <v>8</v>
       </c>
@@ -4767,26 +5111,30 @@
         <v>258</v>
       </c>
       <c r="E135" s="10" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F135" s="12" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+        <v>350</v>
+      </c>
+      <c r="G135" s="12" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B136" s="1">
         <v>1</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D136" s="14" t="s">
         <v>259</v>
       </c>
       <c r="E136" s="10"/>
       <c r="F136" s="12"/>
-    </row>
-    <row r="137" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+      <c r="G136" s="12"/>
+    </row>
+    <row r="137" spans="1:7" ht="28" x14ac:dyDescent="0.15">
       <c r="A137" s="1"/>
       <c r="B137" s="1">
         <v>2</v>
@@ -4799,8 +5147,9 @@
         <v>261</v>
       </c>
       <c r="F137" s="12"/>
-    </row>
-    <row r="138" spans="1:6" ht="84" x14ac:dyDescent="0.15">
+      <c r="G137" s="12"/>
+    </row>
+    <row r="138" spans="1:7" ht="112" x14ac:dyDescent="0.15">
       <c r="A138" s="1" t="s">
         <v>8</v>
       </c>
@@ -4814,13 +5163,16 @@
         <v>263</v>
       </c>
       <c r="E138" s="10" t="s">
-        <v>450</v>
+        <v>477</v>
       </c>
       <c r="F138" s="12" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" ht="42" x14ac:dyDescent="0.15">
+        <v>350</v>
+      </c>
+      <c r="G138" s="12" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" ht="42" x14ac:dyDescent="0.15">
       <c r="A139" s="1" t="s">
         <v>8</v>
       </c>
@@ -4834,13 +5186,16 @@
         <v>265</v>
       </c>
       <c r="E139" s="10" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F139" s="12" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" ht="182" x14ac:dyDescent="0.15">
+        <v>350</v>
+      </c>
+      <c r="G139" s="12" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" ht="182" x14ac:dyDescent="0.15">
       <c r="A140" s="1" t="s">
         <v>8</v>
       </c>
@@ -4854,13 +5209,16 @@
         <v>267</v>
       </c>
       <c r="E140" s="10" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F140" s="12" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" ht="182" x14ac:dyDescent="0.15">
+        <v>350</v>
+      </c>
+      <c r="G140" s="12" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" ht="182" x14ac:dyDescent="0.15">
       <c r="A141" s="1" t="s">
         <v>8</v>
       </c>
@@ -4874,13 +5232,16 @@
         <v>269</v>
       </c>
       <c r="E141" s="10" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F141" s="12" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" ht="140" x14ac:dyDescent="0.15">
+        <v>350</v>
+      </c>
+      <c r="G141" s="12" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" ht="140" x14ac:dyDescent="0.15">
       <c r="A142" s="1" t="s">
         <v>8</v>
       </c>
@@ -4894,26 +5255,30 @@
         <v>271</v>
       </c>
       <c r="E142" s="10" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F142" s="12" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+        <v>350</v>
+      </c>
+      <c r="G142" s="12" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B143" s="1">
         <v>1</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D143" s="13" t="s">
         <v>272</v>
       </c>
       <c r="E143" s="10"/>
       <c r="F143" s="12"/>
-    </row>
-    <row r="144" spans="1:6" ht="42" x14ac:dyDescent="0.15">
+      <c r="G143" s="12"/>
+    </row>
+    <row r="144" spans="1:7" ht="42" x14ac:dyDescent="0.15">
       <c r="A144" s="1"/>
       <c r="B144" s="1">
         <v>2</v>
@@ -4926,8 +5291,9 @@
         <v>274</v>
       </c>
       <c r="F144" s="12"/>
-    </row>
-    <row r="145" spans="1:6" ht="70" x14ac:dyDescent="0.15">
+      <c r="G144" s="12"/>
+    </row>
+    <row r="145" spans="1:7" ht="70" x14ac:dyDescent="0.15">
       <c r="A145" s="1" t="s">
         <v>8</v>
       </c>
@@ -4941,13 +5307,16 @@
         <v>276</v>
       </c>
       <c r="E145" s="10" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F145" s="12" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" ht="84" x14ac:dyDescent="0.15">
+        <v>350</v>
+      </c>
+      <c r="G145" s="12" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" ht="84" x14ac:dyDescent="0.15">
       <c r="A146" s="1" t="s">
         <v>8</v>
       </c>
@@ -4961,13 +5330,16 @@
         <v>278</v>
       </c>
       <c r="E146" s="10" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F146" s="12" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" ht="84" x14ac:dyDescent="0.15">
+        <v>350</v>
+      </c>
+      <c r="G146" s="12" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" ht="84" x14ac:dyDescent="0.15">
       <c r="A147" s="1" t="s">
         <v>8</v>
       </c>
@@ -4981,13 +5353,16 @@
         <v>280</v>
       </c>
       <c r="E147" s="10" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F147" s="12" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" ht="140" x14ac:dyDescent="0.15">
+        <v>351</v>
+      </c>
+      <c r="G147" s="12" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" ht="140" x14ac:dyDescent="0.15">
       <c r="A148" s="1" t="s">
         <v>8</v>
       </c>
@@ -5001,26 +5376,30 @@
         <v>282</v>
       </c>
       <c r="E148" s="10" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F148" s="12" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+        <v>351</v>
+      </c>
+      <c r="G148" s="12" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B149" s="1">
         <v>1</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D149" s="13" t="s">
         <v>283</v>
       </c>
       <c r="E149" s="10"/>
       <c r="F149" s="12"/>
-    </row>
-    <row r="150" spans="1:6" ht="42" x14ac:dyDescent="0.15">
+      <c r="G149" s="12"/>
+    </row>
+    <row r="150" spans="1:7" ht="42" x14ac:dyDescent="0.15">
       <c r="A150" s="1"/>
       <c r="B150" s="1">
         <v>2</v>
@@ -5033,8 +5412,9 @@
         <v>285</v>
       </c>
       <c r="F150" s="12"/>
-    </row>
-    <row r="151" spans="1:6" ht="84" x14ac:dyDescent="0.15">
+      <c r="G150" s="12"/>
+    </row>
+    <row r="151" spans="1:7" ht="84" x14ac:dyDescent="0.15">
       <c r="A151" s="1" t="s">
         <v>8</v>
       </c>
@@ -5048,13 +5428,16 @@
         <v>287</v>
       </c>
       <c r="E151" s="10" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F151" s="12" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" ht="70" x14ac:dyDescent="0.15">
+        <v>350</v>
+      </c>
+      <c r="G151" s="12" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" ht="70" x14ac:dyDescent="0.15">
       <c r="A152" s="1" t="s">
         <v>8</v>
       </c>
@@ -5068,13 +5451,16 @@
         <v>289</v>
       </c>
       <c r="E152" s="10" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F152" s="12" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" ht="56" x14ac:dyDescent="0.15">
+        <v>350</v>
+      </c>
+      <c r="G152" s="12" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" ht="56" x14ac:dyDescent="0.15">
       <c r="A153" s="1" t="s">
         <v>8</v>
       </c>
@@ -5088,13 +5474,16 @@
         <v>291</v>
       </c>
       <c r="E153" s="10" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F153" s="12" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" ht="70" x14ac:dyDescent="0.15">
+        <v>351</v>
+      </c>
+      <c r="G153" s="12" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" ht="70" x14ac:dyDescent="0.15">
       <c r="A154" s="1" t="s">
         <v>8</v>
       </c>
@@ -5108,26 +5497,30 @@
         <v>293</v>
       </c>
       <c r="E154" s="10" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F154" s="12" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+        <v>351</v>
+      </c>
+      <c r="G154" s="12" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B155" s="1">
         <v>1</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D155" s="13" t="s">
         <v>294</v>
       </c>
       <c r="E155" s="10"/>
       <c r="F155" s="12"/>
-    </row>
-    <row r="156" spans="1:6" ht="56" x14ac:dyDescent="0.15">
+      <c r="G155" s="12"/>
+    </row>
+    <row r="156" spans="1:7" ht="56" x14ac:dyDescent="0.15">
       <c r="A156" s="1"/>
       <c r="B156" s="1">
         <v>2</v>
@@ -5140,8 +5533,9 @@
         <v>296</v>
       </c>
       <c r="F156" s="12"/>
-    </row>
-    <row r="157" spans="1:6" ht="126" x14ac:dyDescent="0.15">
+      <c r="G156" s="12"/>
+    </row>
+    <row r="157" spans="1:7" ht="126" x14ac:dyDescent="0.15">
       <c r="A157" s="1" t="s">
         <v>8</v>
       </c>
@@ -5155,13 +5549,16 @@
         <v>298</v>
       </c>
       <c r="E157" s="10" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F157" s="12" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" ht="56" x14ac:dyDescent="0.15">
+        <v>350</v>
+      </c>
+      <c r="G157" s="12" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" ht="56" x14ac:dyDescent="0.15">
       <c r="A158" s="1" t="s">
         <v>8</v>
       </c>
@@ -5175,13 +5572,16 @@
         <v>300</v>
       </c>
       <c r="E158" s="10" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F158" s="12" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" ht="56" x14ac:dyDescent="0.15">
+        <v>351</v>
+      </c>
+      <c r="G158" s="12" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" ht="56" x14ac:dyDescent="0.15">
       <c r="A159" s="1" t="s">
         <v>8</v>
       </c>
@@ -5195,13 +5595,16 @@
         <v>237</v>
       </c>
       <c r="E159" s="10" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F159" s="12" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" ht="42" x14ac:dyDescent="0.15">
+        <v>351</v>
+      </c>
+      <c r="G159" s="12" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" ht="42" x14ac:dyDescent="0.15">
       <c r="A160" s="1"/>
       <c r="B160" s="1">
         <v>2</v>
@@ -5214,8 +5617,9 @@
         <v>303</v>
       </c>
       <c r="F160" s="12"/>
-    </row>
-    <row r="161" spans="1:6" ht="98" x14ac:dyDescent="0.15">
+      <c r="G160" s="12"/>
+    </row>
+    <row r="161" spans="1:7" ht="98" x14ac:dyDescent="0.15">
       <c r="A161" s="1" t="s">
         <v>8</v>
       </c>
@@ -5229,13 +5633,16 @@
         <v>305</v>
       </c>
       <c r="E161" s="10" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F161" s="12" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" ht="56" x14ac:dyDescent="0.15">
+        <v>350</v>
+      </c>
+      <c r="G161" s="12" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" ht="56" x14ac:dyDescent="0.15">
       <c r="A162" s="1" t="s">
         <v>8</v>
       </c>
@@ -5249,13 +5656,16 @@
         <v>307</v>
       </c>
       <c r="E162" s="10" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F162" s="12" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" ht="140" x14ac:dyDescent="0.15">
+        <v>350</v>
+      </c>
+      <c r="G162" s="12" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" ht="140" x14ac:dyDescent="0.15">
       <c r="A163" s="1" t="s">
         <v>8</v>
       </c>
@@ -5269,2522 +5679,3362 @@
         <v>309</v>
       </c>
       <c r="E163" s="10" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F163" s="12" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>350</v>
+      </c>
+      <c r="G163" s="12" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F164" s="12"/>
-    </row>
-    <row r="165" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G164" s="12"/>
+    </row>
+    <row r="165" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F165" s="12"/>
-    </row>
-    <row r="166" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G165" s="12"/>
+    </row>
+    <row r="166" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F166" s="12"/>
-    </row>
-    <row r="167" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G166" s="12"/>
+    </row>
+    <row r="167" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F167" s="12"/>
-    </row>
-    <row r="168" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G167" s="12"/>
+    </row>
+    <row r="168" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F168" s="12"/>
-    </row>
-    <row r="169" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G168" s="12"/>
+    </row>
+    <row r="169" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F169" s="12"/>
-    </row>
-    <row r="170" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G169" s="12"/>
+    </row>
+    <row r="170" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F170" s="12"/>
-    </row>
-    <row r="171" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G170" s="12"/>
+    </row>
+    <row r="171" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F171" s="12"/>
-    </row>
-    <row r="172" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G171" s="12"/>
+    </row>
+    <row r="172" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F172" s="12"/>
-    </row>
-    <row r="173" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G172" s="12"/>
+    </row>
+    <row r="173" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F173" s="12"/>
-    </row>
-    <row r="174" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G173" s="12"/>
+    </row>
+    <row r="174" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F174" s="12"/>
-    </row>
-    <row r="175" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G174" s="12"/>
+    </row>
+    <row r="175" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F175" s="12"/>
-    </row>
-    <row r="176" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G175" s="12"/>
+    </row>
+    <row r="176" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F176" s="12"/>
-    </row>
-    <row r="177" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G176" s="12"/>
+    </row>
+    <row r="177" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F177" s="12"/>
-    </row>
-    <row r="178" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G177" s="12"/>
+    </row>
+    <row r="178" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F178" s="12"/>
-    </row>
-    <row r="179" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G178" s="12"/>
+    </row>
+    <row r="179" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F179" s="12"/>
-    </row>
-    <row r="180" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G179" s="12"/>
+    </row>
+    <row r="180" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F180" s="12"/>
-    </row>
-    <row r="181" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G180" s="12"/>
+    </row>
+    <row r="181" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F181" s="12"/>
-    </row>
-    <row r="182" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G181" s="12"/>
+    </row>
+    <row r="182" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F182" s="12"/>
-    </row>
-    <row r="183" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G182" s="12"/>
+    </row>
+    <row r="183" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F183" s="12"/>
-    </row>
-    <row r="184" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G183" s="12"/>
+    </row>
+    <row r="184" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F184" s="12"/>
-    </row>
-    <row r="185" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G184" s="12"/>
+    </row>
+    <row r="185" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F185" s="12"/>
-    </row>
-    <row r="186" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G185" s="12"/>
+    </row>
+    <row r="186" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F186" s="12"/>
-    </row>
-    <row r="187" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G186" s="12"/>
+    </row>
+    <row r="187" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F187" s="12"/>
-    </row>
-    <row r="188" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G187" s="12"/>
+    </row>
+    <row r="188" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F188" s="12"/>
-    </row>
-    <row r="189" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G188" s="12"/>
+    </row>
+    <row r="189" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F189" s="12"/>
-    </row>
-    <row r="190" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G189" s="12"/>
+    </row>
+    <row r="190" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F190" s="12"/>
-    </row>
-    <row r="191" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G190" s="12"/>
+    </row>
+    <row r="191" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F191" s="12"/>
-    </row>
-    <row r="192" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G191" s="12"/>
+    </row>
+    <row r="192" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F192" s="12"/>
-    </row>
-    <row r="193" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G192" s="12"/>
+    </row>
+    <row r="193" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F193" s="12"/>
-    </row>
-    <row r="194" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G193" s="12"/>
+    </row>
+    <row r="194" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F194" s="12"/>
-    </row>
-    <row r="195" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G194" s="12"/>
+    </row>
+    <row r="195" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F195" s="12"/>
-    </row>
-    <row r="196" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G195" s="12"/>
+    </row>
+    <row r="196" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F196" s="12"/>
-    </row>
-    <row r="197" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G196" s="12"/>
+    </row>
+    <row r="197" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F197" s="12"/>
-    </row>
-    <row r="198" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G197" s="12"/>
+    </row>
+    <row r="198" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F198" s="12"/>
-    </row>
-    <row r="199" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G198" s="12"/>
+    </row>
+    <row r="199" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F199" s="12"/>
-    </row>
-    <row r="200" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G199" s="12"/>
+    </row>
+    <row r="200" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F200" s="12"/>
-    </row>
-    <row r="201" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G200" s="12"/>
+    </row>
+    <row r="201" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F201" s="12"/>
-    </row>
-    <row r="202" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G201" s="12"/>
+    </row>
+    <row r="202" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F202" s="12"/>
-    </row>
-    <row r="203" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G202" s="12"/>
+    </row>
+    <row r="203" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F203" s="12"/>
-    </row>
-    <row r="204" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G203" s="12"/>
+    </row>
+    <row r="204" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F204" s="12"/>
-    </row>
-    <row r="205" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G204" s="12"/>
+    </row>
+    <row r="205" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F205" s="12"/>
-    </row>
-    <row r="206" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G205" s="12"/>
+    </row>
+    <row r="206" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F206" s="12"/>
-    </row>
-    <row r="207" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G206" s="12"/>
+    </row>
+    <row r="207" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F207" s="12"/>
-    </row>
-    <row r="208" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G207" s="12"/>
+    </row>
+    <row r="208" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F208" s="12"/>
-    </row>
-    <row r="209" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G208" s="12"/>
+    </row>
+    <row r="209" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F209" s="12"/>
-    </row>
-    <row r="210" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G209" s="12"/>
+    </row>
+    <row r="210" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F210" s="12"/>
-    </row>
-    <row r="211" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G210" s="12"/>
+    </row>
+    <row r="211" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F211" s="12"/>
-    </row>
-    <row r="212" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G211" s="12"/>
+    </row>
+    <row r="212" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F212" s="12"/>
-    </row>
-    <row r="213" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G212" s="12"/>
+    </row>
+    <row r="213" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F213" s="12"/>
-    </row>
-    <row r="214" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G213" s="12"/>
+    </row>
+    <row r="214" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F214" s="12"/>
-    </row>
-    <row r="215" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G214" s="12"/>
+    </row>
+    <row r="215" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F215" s="12"/>
-    </row>
-    <row r="216" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G215" s="12"/>
+    </row>
+    <row r="216" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F216" s="12"/>
-    </row>
-    <row r="217" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G216" s="12"/>
+    </row>
+    <row r="217" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F217" s="12"/>
-    </row>
-    <row r="218" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G217" s="12"/>
+    </row>
+    <row r="218" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F218" s="12"/>
-    </row>
-    <row r="219" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G218" s="12"/>
+    </row>
+    <row r="219" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F219" s="12"/>
-    </row>
-    <row r="220" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G219" s="12"/>
+    </row>
+    <row r="220" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F220" s="12"/>
-    </row>
-    <row r="221" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G220" s="12"/>
+    </row>
+    <row r="221" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F221" s="12"/>
-    </row>
-    <row r="222" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G221" s="12"/>
+    </row>
+    <row r="222" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F222" s="12"/>
-    </row>
-    <row r="223" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G222" s="12"/>
+    </row>
+    <row r="223" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F223" s="12"/>
-    </row>
-    <row r="224" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G223" s="12"/>
+    </row>
+    <row r="224" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F224" s="12"/>
-    </row>
-    <row r="225" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G224" s="12"/>
+    </row>
+    <row r="225" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F225" s="12"/>
-    </row>
-    <row r="226" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G225" s="12"/>
+    </row>
+    <row r="226" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F226" s="12"/>
-    </row>
-    <row r="227" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G226" s="12"/>
+    </row>
+    <row r="227" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F227" s="12"/>
-    </row>
-    <row r="228" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G227" s="12"/>
+    </row>
+    <row r="228" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F228" s="12"/>
-    </row>
-    <row r="229" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G228" s="12"/>
+    </row>
+    <row r="229" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F229" s="12"/>
-    </row>
-    <row r="230" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G229" s="12"/>
+    </row>
+    <row r="230" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F230" s="12"/>
-    </row>
-    <row r="231" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G230" s="12"/>
+    </row>
+    <row r="231" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F231" s="12"/>
-    </row>
-    <row r="232" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G231" s="12"/>
+    </row>
+    <row r="232" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F232" s="12"/>
-    </row>
-    <row r="233" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G232" s="12"/>
+    </row>
+    <row r="233" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F233" s="12"/>
-    </row>
-    <row r="234" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G233" s="12"/>
+    </row>
+    <row r="234" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F234" s="12"/>
-    </row>
-    <row r="235" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G234" s="12"/>
+    </row>
+    <row r="235" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F235" s="12"/>
-    </row>
-    <row r="236" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G235" s="12"/>
+    </row>
+    <row r="236" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F236" s="12"/>
-    </row>
-    <row r="237" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G236" s="12"/>
+    </row>
+    <row r="237" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F237" s="12"/>
-    </row>
-    <row r="238" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G237" s="12"/>
+    </row>
+    <row r="238" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F238" s="12"/>
-    </row>
-    <row r="239" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G238" s="12"/>
+    </row>
+    <row r="239" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F239" s="12"/>
-    </row>
-    <row r="240" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G239" s="12"/>
+    </row>
+    <row r="240" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F240" s="12"/>
-    </row>
-    <row r="241" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G240" s="12"/>
+    </row>
+    <row r="241" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F241" s="12"/>
-    </row>
-    <row r="242" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G241" s="12"/>
+    </row>
+    <row r="242" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F242" s="12"/>
-    </row>
-    <row r="243" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G242" s="12"/>
+    </row>
+    <row r="243" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F243" s="12"/>
-    </row>
-    <row r="244" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G243" s="12"/>
+    </row>
+    <row r="244" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F244" s="12"/>
-    </row>
-    <row r="245" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G244" s="12"/>
+    </row>
+    <row r="245" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F245" s="12"/>
-    </row>
-    <row r="246" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G245" s="12"/>
+    </row>
+    <row r="246" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F246" s="12"/>
-    </row>
-    <row r="247" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G246" s="12"/>
+    </row>
+    <row r="247" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F247" s="12"/>
-    </row>
-    <row r="248" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G247" s="12"/>
+    </row>
+    <row r="248" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F248" s="12"/>
-    </row>
-    <row r="249" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G248" s="12"/>
+    </row>
+    <row r="249" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F249" s="12"/>
-    </row>
-    <row r="250" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G249" s="12"/>
+    </row>
+    <row r="250" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F250" s="12"/>
-    </row>
-    <row r="251" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G250" s="12"/>
+    </row>
+    <row r="251" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F251" s="12"/>
-    </row>
-    <row r="252" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G251" s="12"/>
+    </row>
+    <row r="252" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F252" s="12"/>
-    </row>
-    <row r="253" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G252" s="12"/>
+    </row>
+    <row r="253" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F253" s="12"/>
-    </row>
-    <row r="254" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G253" s="12"/>
+    </row>
+    <row r="254" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F254" s="12"/>
-    </row>
-    <row r="255" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G254" s="12"/>
+    </row>
+    <row r="255" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F255" s="12"/>
-    </row>
-    <row r="256" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G255" s="12"/>
+    </row>
+    <row r="256" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F256" s="12"/>
-    </row>
-    <row r="257" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G256" s="12"/>
+    </row>
+    <row r="257" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F257" s="12"/>
-    </row>
-    <row r="258" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G257" s="12"/>
+    </row>
+    <row r="258" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F258" s="12"/>
-    </row>
-    <row r="259" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G258" s="12"/>
+    </row>
+    <row r="259" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F259" s="12"/>
-    </row>
-    <row r="260" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G259" s="12"/>
+    </row>
+    <row r="260" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F260" s="12"/>
-    </row>
-    <row r="261" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G260" s="12"/>
+    </row>
+    <row r="261" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F261" s="12"/>
-    </row>
-    <row r="262" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G261" s="12"/>
+    </row>
+    <row r="262" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F262" s="12"/>
-    </row>
-    <row r="263" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G262" s="12"/>
+    </row>
+    <row r="263" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F263" s="12"/>
-    </row>
-    <row r="264" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G263" s="12"/>
+    </row>
+    <row r="264" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F264" s="12"/>
-    </row>
-    <row r="265" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G264" s="12"/>
+    </row>
+    <row r="265" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F265" s="12"/>
-    </row>
-    <row r="266" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G265" s="12"/>
+    </row>
+    <row r="266" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F266" s="12"/>
-    </row>
-    <row r="267" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G266" s="12"/>
+    </row>
+    <row r="267" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F267" s="12"/>
-    </row>
-    <row r="268" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G267" s="12"/>
+    </row>
+    <row r="268" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F268" s="12"/>
-    </row>
-    <row r="269" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G268" s="12"/>
+    </row>
+    <row r="269" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F269" s="12"/>
-    </row>
-    <row r="270" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G269" s="12"/>
+    </row>
+    <row r="270" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F270" s="12"/>
-    </row>
-    <row r="271" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G270" s="12"/>
+    </row>
+    <row r="271" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F271" s="12"/>
-    </row>
-    <row r="272" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G271" s="12"/>
+    </row>
+    <row r="272" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F272" s="12"/>
-    </row>
-    <row r="273" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G272" s="12"/>
+    </row>
+    <row r="273" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F273" s="12"/>
-    </row>
-    <row r="274" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G273" s="12"/>
+    </row>
+    <row r="274" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F274" s="12"/>
-    </row>
-    <row r="275" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G274" s="12"/>
+    </row>
+    <row r="275" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F275" s="12"/>
-    </row>
-    <row r="276" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G275" s="12"/>
+    </row>
+    <row r="276" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F276" s="12"/>
-    </row>
-    <row r="277" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G276" s="12"/>
+    </row>
+    <row r="277" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F277" s="12"/>
-    </row>
-    <row r="278" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G277" s="12"/>
+    </row>
+    <row r="278" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F278" s="12"/>
-    </row>
-    <row r="279" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G278" s="12"/>
+    </row>
+    <row r="279" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F279" s="12"/>
-    </row>
-    <row r="280" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G279" s="12"/>
+    </row>
+    <row r="280" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F280" s="12"/>
-    </row>
-    <row r="281" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G280" s="12"/>
+    </row>
+    <row r="281" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F281" s="12"/>
-    </row>
-    <row r="282" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G281" s="12"/>
+    </row>
+    <row r="282" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F282" s="12"/>
-    </row>
-    <row r="283" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G282" s="12"/>
+    </row>
+    <row r="283" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F283" s="12"/>
-    </row>
-    <row r="284" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G283" s="12"/>
+    </row>
+    <row r="284" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F284" s="12"/>
-    </row>
-    <row r="285" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G284" s="12"/>
+    </row>
+    <row r="285" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F285" s="12"/>
-    </row>
-    <row r="286" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G285" s="12"/>
+    </row>
+    <row r="286" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F286" s="12"/>
-    </row>
-    <row r="287" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G286" s="12"/>
+    </row>
+    <row r="287" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F287" s="12"/>
-    </row>
-    <row r="288" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G287" s="12"/>
+    </row>
+    <row r="288" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F288" s="12"/>
-    </row>
-    <row r="289" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G288" s="12"/>
+    </row>
+    <row r="289" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F289" s="12"/>
-    </row>
-    <row r="290" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G289" s="12"/>
+    </row>
+    <row r="290" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F290" s="12"/>
-    </row>
-    <row r="291" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G290" s="12"/>
+    </row>
+    <row r="291" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F291" s="12"/>
-    </row>
-    <row r="292" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G291" s="12"/>
+    </row>
+    <row r="292" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F292" s="12"/>
-    </row>
-    <row r="293" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G292" s="12"/>
+    </row>
+    <row r="293" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F293" s="12"/>
-    </row>
-    <row r="294" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G293" s="12"/>
+    </row>
+    <row r="294" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F294" s="12"/>
-    </row>
-    <row r="295" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G294" s="12"/>
+    </row>
+    <row r="295" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F295" s="12"/>
-    </row>
-    <row r="296" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G295" s="12"/>
+    </row>
+    <row r="296" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F296" s="12"/>
-    </row>
-    <row r="297" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G296" s="12"/>
+    </row>
+    <row r="297" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F297" s="12"/>
-    </row>
-    <row r="298" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G297" s="12"/>
+    </row>
+    <row r="298" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F298" s="12"/>
-    </row>
-    <row r="299" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G298" s="12"/>
+    </row>
+    <row r="299" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F299" s="12"/>
-    </row>
-    <row r="300" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G299" s="12"/>
+    </row>
+    <row r="300" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F300" s="12"/>
-    </row>
-    <row r="301" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G300" s="12"/>
+    </row>
+    <row r="301" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F301" s="12"/>
-    </row>
-    <row r="302" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G301" s="12"/>
+    </row>
+    <row r="302" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F302" s="12"/>
-    </row>
-    <row r="303" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G302" s="12"/>
+    </row>
+    <row r="303" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F303" s="12"/>
-    </row>
-    <row r="304" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G303" s="12"/>
+    </row>
+    <row r="304" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F304" s="12"/>
-    </row>
-    <row r="305" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G304" s="12"/>
+    </row>
+    <row r="305" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F305" s="12"/>
-    </row>
-    <row r="306" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G305" s="12"/>
+    </row>
+    <row r="306" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F306" s="12"/>
-    </row>
-    <row r="307" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G306" s="12"/>
+    </row>
+    <row r="307" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F307" s="12"/>
-    </row>
-    <row r="308" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G307" s="12"/>
+    </row>
+    <row r="308" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F308" s="12"/>
-    </row>
-    <row r="309" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G308" s="12"/>
+    </row>
+    <row r="309" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F309" s="12"/>
-    </row>
-    <row r="310" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G309" s="12"/>
+    </row>
+    <row r="310" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F310" s="12"/>
-    </row>
-    <row r="311" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G310" s="12"/>
+    </row>
+    <row r="311" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F311" s="12"/>
-    </row>
-    <row r="312" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G311" s="12"/>
+    </row>
+    <row r="312" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F312" s="12"/>
-    </row>
-    <row r="313" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G312" s="12"/>
+    </row>
+    <row r="313" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F313" s="12"/>
-    </row>
-    <row r="314" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G313" s="12"/>
+    </row>
+    <row r="314" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F314" s="12"/>
-    </row>
-    <row r="315" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G314" s="12"/>
+    </row>
+    <row r="315" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F315" s="12"/>
-    </row>
-    <row r="316" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G315" s="12"/>
+    </row>
+    <row r="316" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F316" s="12"/>
-    </row>
-    <row r="317" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G316" s="12"/>
+    </row>
+    <row r="317" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F317" s="12"/>
-    </row>
-    <row r="318" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G317" s="12"/>
+    </row>
+    <row r="318" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F318" s="12"/>
-    </row>
-    <row r="319" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G318" s="12"/>
+    </row>
+    <row r="319" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F319" s="12"/>
-    </row>
-    <row r="320" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G319" s="12"/>
+    </row>
+    <row r="320" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F320" s="12"/>
-    </row>
-    <row r="321" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G320" s="12"/>
+    </row>
+    <row r="321" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F321" s="12"/>
-    </row>
-    <row r="322" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G321" s="12"/>
+    </row>
+    <row r="322" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F322" s="12"/>
-    </row>
-    <row r="323" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G322" s="12"/>
+    </row>
+    <row r="323" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F323" s="12"/>
-    </row>
-    <row r="324" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G323" s="12"/>
+    </row>
+    <row r="324" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F324" s="12"/>
-    </row>
-    <row r="325" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G324" s="12"/>
+    </row>
+    <row r="325" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F325" s="12"/>
-    </row>
-    <row r="326" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G325" s="12"/>
+    </row>
+    <row r="326" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F326" s="12"/>
-    </row>
-    <row r="327" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G326" s="12"/>
+    </row>
+    <row r="327" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F327" s="12"/>
-    </row>
-    <row r="328" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G327" s="12"/>
+    </row>
+    <row r="328" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F328" s="12"/>
-    </row>
-    <row r="329" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G328" s="12"/>
+    </row>
+    <row r="329" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F329" s="12"/>
-    </row>
-    <row r="330" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G329" s="12"/>
+    </row>
+    <row r="330" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F330" s="12"/>
-    </row>
-    <row r="331" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G330" s="12"/>
+    </row>
+    <row r="331" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F331" s="12"/>
-    </row>
-    <row r="332" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G331" s="12"/>
+    </row>
+    <row r="332" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F332" s="12"/>
-    </row>
-    <row r="333" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G332" s="12"/>
+    </row>
+    <row r="333" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F333" s="12"/>
-    </row>
-    <row r="334" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G333" s="12"/>
+    </row>
+    <row r="334" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F334" s="12"/>
-    </row>
-    <row r="335" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G334" s="12"/>
+    </row>
+    <row r="335" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F335" s="12"/>
-    </row>
-    <row r="336" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G335" s="12"/>
+    </row>
+    <row r="336" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F336" s="12"/>
-    </row>
-    <row r="337" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G336" s="12"/>
+    </row>
+    <row r="337" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F337" s="12"/>
-    </row>
-    <row r="338" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G337" s="12"/>
+    </row>
+    <row r="338" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F338" s="12"/>
-    </row>
-    <row r="339" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G338" s="12"/>
+    </row>
+    <row r="339" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F339" s="12"/>
-    </row>
-    <row r="340" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G339" s="12"/>
+    </row>
+    <row r="340" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F340" s="12"/>
-    </row>
-    <row r="341" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G340" s="12"/>
+    </row>
+    <row r="341" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F341" s="12"/>
-    </row>
-    <row r="342" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G341" s="12"/>
+    </row>
+    <row r="342" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F342" s="12"/>
-    </row>
-    <row r="343" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G342" s="12"/>
+    </row>
+    <row r="343" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F343" s="12"/>
-    </row>
-    <row r="344" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G343" s="12"/>
+    </row>
+    <row r="344" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F344" s="12"/>
-    </row>
-    <row r="345" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G344" s="12"/>
+    </row>
+    <row r="345" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F345" s="12"/>
-    </row>
-    <row r="346" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G345" s="12"/>
+    </row>
+    <row r="346" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F346" s="12"/>
-    </row>
-    <row r="347" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G346" s="12"/>
+    </row>
+    <row r="347" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F347" s="12"/>
-    </row>
-    <row r="348" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G347" s="12"/>
+    </row>
+    <row r="348" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F348" s="12"/>
-    </row>
-    <row r="349" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G348" s="12"/>
+    </row>
+    <row r="349" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F349" s="12"/>
-    </row>
-    <row r="350" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G349" s="12"/>
+    </row>
+    <row r="350" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F350" s="12"/>
-    </row>
-    <row r="351" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G350" s="12"/>
+    </row>
+    <row r="351" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F351" s="12"/>
-    </row>
-    <row r="352" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G351" s="12"/>
+    </row>
+    <row r="352" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F352" s="12"/>
-    </row>
-    <row r="353" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G352" s="12"/>
+    </row>
+    <row r="353" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F353" s="12"/>
-    </row>
-    <row r="354" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G353" s="12"/>
+    </row>
+    <row r="354" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F354" s="12"/>
-    </row>
-    <row r="355" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G354" s="12"/>
+    </row>
+    <row r="355" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F355" s="12"/>
-    </row>
-    <row r="356" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G355" s="12"/>
+    </row>
+    <row r="356" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F356" s="12"/>
-    </row>
-    <row r="357" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G356" s="12"/>
+    </row>
+    <row r="357" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F357" s="12"/>
-    </row>
-    <row r="358" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G357" s="12"/>
+    </row>
+    <row r="358" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F358" s="12"/>
-    </row>
-    <row r="359" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G358" s="12"/>
+    </row>
+    <row r="359" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F359" s="12"/>
-    </row>
-    <row r="360" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G359" s="12"/>
+    </row>
+    <row r="360" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F360" s="12"/>
-    </row>
-    <row r="361" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G360" s="12"/>
+    </row>
+    <row r="361" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F361" s="12"/>
-    </row>
-    <row r="362" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G361" s="12"/>
+    </row>
+    <row r="362" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F362" s="12"/>
-    </row>
-    <row r="363" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G362" s="12"/>
+    </row>
+    <row r="363" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F363" s="12"/>
-    </row>
-    <row r="364" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G363" s="12"/>
+    </row>
+    <row r="364" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F364" s="12"/>
-    </row>
-    <row r="365" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G364" s="12"/>
+    </row>
+    <row r="365" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F365" s="12"/>
-    </row>
-    <row r="366" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G365" s="12"/>
+    </row>
+    <row r="366" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F366" s="12"/>
-    </row>
-    <row r="367" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G366" s="12"/>
+    </row>
+    <row r="367" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F367" s="12"/>
-    </row>
-    <row r="368" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G367" s="12"/>
+    </row>
+    <row r="368" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F368" s="12"/>
-    </row>
-    <row r="369" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G368" s="12"/>
+    </row>
+    <row r="369" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F369" s="12"/>
-    </row>
-    <row r="370" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G369" s="12"/>
+    </row>
+    <row r="370" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F370" s="12"/>
-    </row>
-    <row r="371" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G370" s="12"/>
+    </row>
+    <row r="371" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F371" s="12"/>
-    </row>
-    <row r="372" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G371" s="12"/>
+    </row>
+    <row r="372" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F372" s="12"/>
-    </row>
-    <row r="373" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G372" s="12"/>
+    </row>
+    <row r="373" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F373" s="12"/>
-    </row>
-    <row r="374" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G373" s="12"/>
+    </row>
+    <row r="374" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F374" s="12"/>
-    </row>
-    <row r="375" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G374" s="12"/>
+    </row>
+    <row r="375" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F375" s="12"/>
-    </row>
-    <row r="376" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G375" s="12"/>
+    </row>
+    <row r="376" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F376" s="12"/>
-    </row>
-    <row r="377" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G376" s="12"/>
+    </row>
+    <row r="377" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F377" s="12"/>
-    </row>
-    <row r="378" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G377" s="12"/>
+    </row>
+    <row r="378" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F378" s="12"/>
-    </row>
-    <row r="379" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G378" s="12"/>
+    </row>
+    <row r="379" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F379" s="12"/>
-    </row>
-    <row r="380" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G379" s="12"/>
+    </row>
+    <row r="380" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F380" s="12"/>
-    </row>
-    <row r="381" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G380" s="12"/>
+    </row>
+    <row r="381" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F381" s="12"/>
-    </row>
-    <row r="382" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G381" s="12"/>
+    </row>
+    <row r="382" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F382" s="12"/>
-    </row>
-    <row r="383" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G382" s="12"/>
+    </row>
+    <row r="383" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F383" s="12"/>
-    </row>
-    <row r="384" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G383" s="12"/>
+    </row>
+    <row r="384" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F384" s="12"/>
-    </row>
-    <row r="385" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G384" s="12"/>
+    </row>
+    <row r="385" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F385" s="12"/>
-    </row>
-    <row r="386" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G385" s="12"/>
+    </row>
+    <row r="386" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F386" s="12"/>
-    </row>
-    <row r="387" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G386" s="12"/>
+    </row>
+    <row r="387" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F387" s="12"/>
-    </row>
-    <row r="388" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G387" s="12"/>
+    </row>
+    <row r="388" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F388" s="12"/>
-    </row>
-    <row r="389" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G388" s="12"/>
+    </row>
+    <row r="389" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F389" s="12"/>
-    </row>
-    <row r="390" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G389" s="12"/>
+    </row>
+    <row r="390" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F390" s="12"/>
-    </row>
-    <row r="391" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G390" s="12"/>
+    </row>
+    <row r="391" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F391" s="12"/>
-    </row>
-    <row r="392" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G391" s="12"/>
+    </row>
+    <row r="392" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F392" s="12"/>
-    </row>
-    <row r="393" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G392" s="12"/>
+    </row>
+    <row r="393" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F393" s="12"/>
-    </row>
-    <row r="394" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G393" s="12"/>
+    </row>
+    <row r="394" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F394" s="12"/>
-    </row>
-    <row r="395" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G394" s="12"/>
+    </row>
+    <row r="395" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F395" s="12"/>
-    </row>
-    <row r="396" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G395" s="12"/>
+    </row>
+    <row r="396" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F396" s="12"/>
-    </row>
-    <row r="397" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G396" s="12"/>
+    </row>
+    <row r="397" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F397" s="12"/>
-    </row>
-    <row r="398" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G397" s="12"/>
+    </row>
+    <row r="398" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F398" s="12"/>
-    </row>
-    <row r="399" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G398" s="12"/>
+    </row>
+    <row r="399" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F399" s="12"/>
-    </row>
-    <row r="400" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G399" s="12"/>
+    </row>
+    <row r="400" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F400" s="12"/>
-    </row>
-    <row r="401" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G400" s="12"/>
+    </row>
+    <row r="401" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F401" s="12"/>
-    </row>
-    <row r="402" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G401" s="12"/>
+    </row>
+    <row r="402" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F402" s="12"/>
-    </row>
-    <row r="403" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G402" s="12"/>
+    </row>
+    <row r="403" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F403" s="12"/>
-    </row>
-    <row r="404" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G403" s="12"/>
+    </row>
+    <row r="404" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F404" s="12"/>
-    </row>
-    <row r="405" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G404" s="12"/>
+    </row>
+    <row r="405" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F405" s="12"/>
-    </row>
-    <row r="406" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G405" s="12"/>
+    </row>
+    <row r="406" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F406" s="12"/>
-    </row>
-    <row r="407" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G406" s="12"/>
+    </row>
+    <row r="407" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F407" s="12"/>
-    </row>
-    <row r="408" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G407" s="12"/>
+    </row>
+    <row r="408" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F408" s="12"/>
-    </row>
-    <row r="409" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G408" s="12"/>
+    </row>
+    <row r="409" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F409" s="12"/>
-    </row>
-    <row r="410" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G409" s="12"/>
+    </row>
+    <row r="410" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F410" s="12"/>
-    </row>
-    <row r="411" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G410" s="12"/>
+    </row>
+    <row r="411" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F411" s="12"/>
-    </row>
-    <row r="412" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G411" s="12"/>
+    </row>
+    <row r="412" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F412" s="12"/>
-    </row>
-    <row r="413" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G412" s="12"/>
+    </row>
+    <row r="413" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F413" s="12"/>
-    </row>
-    <row r="414" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G413" s="12"/>
+    </row>
+    <row r="414" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F414" s="12"/>
-    </row>
-    <row r="415" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G414" s="12"/>
+    </row>
+    <row r="415" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F415" s="12"/>
-    </row>
-    <row r="416" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G415" s="12"/>
+    </row>
+    <row r="416" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F416" s="12"/>
-    </row>
-    <row r="417" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G416" s="12"/>
+    </row>
+    <row r="417" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F417" s="12"/>
-    </row>
-    <row r="418" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G417" s="12"/>
+    </row>
+    <row r="418" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F418" s="12"/>
-    </row>
-    <row r="419" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G418" s="12"/>
+    </row>
+    <row r="419" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F419" s="12"/>
-    </row>
-    <row r="420" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G419" s="12"/>
+    </row>
+    <row r="420" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F420" s="12"/>
-    </row>
-    <row r="421" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G420" s="12"/>
+    </row>
+    <row r="421" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F421" s="12"/>
-    </row>
-    <row r="422" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G421" s="12"/>
+    </row>
+    <row r="422" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F422" s="12"/>
-    </row>
-    <row r="423" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G422" s="12"/>
+    </row>
+    <row r="423" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F423" s="12"/>
-    </row>
-    <row r="424" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G423" s="12"/>
+    </row>
+    <row r="424" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F424" s="12"/>
-    </row>
-    <row r="425" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G424" s="12"/>
+    </row>
+    <row r="425" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F425" s="12"/>
-    </row>
-    <row r="426" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G425" s="12"/>
+    </row>
+    <row r="426" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F426" s="12"/>
-    </row>
-    <row r="427" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G426" s="12"/>
+    </row>
+    <row r="427" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F427" s="12"/>
-    </row>
-    <row r="428" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G427" s="12"/>
+    </row>
+    <row r="428" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F428" s="12"/>
-    </row>
-    <row r="429" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G428" s="12"/>
+    </row>
+    <row r="429" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F429" s="12"/>
-    </row>
-    <row r="430" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G429" s="12"/>
+    </row>
+    <row r="430" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F430" s="12"/>
-    </row>
-    <row r="431" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G430" s="12"/>
+    </row>
+    <row r="431" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F431" s="12"/>
-    </row>
-    <row r="432" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G431" s="12"/>
+    </row>
+    <row r="432" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F432" s="12"/>
-    </row>
-    <row r="433" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G432" s="12"/>
+    </row>
+    <row r="433" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F433" s="12"/>
-    </row>
-    <row r="434" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G433" s="12"/>
+    </row>
+    <row r="434" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F434" s="12"/>
-    </row>
-    <row r="435" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G434" s="12"/>
+    </row>
+    <row r="435" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F435" s="12"/>
-    </row>
-    <row r="436" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G435" s="12"/>
+    </row>
+    <row r="436" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F436" s="12"/>
-    </row>
-    <row r="437" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G436" s="12"/>
+    </row>
+    <row r="437" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F437" s="12"/>
-    </row>
-    <row r="438" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G437" s="12"/>
+    </row>
+    <row r="438" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F438" s="12"/>
-    </row>
-    <row r="439" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G438" s="12"/>
+    </row>
+    <row r="439" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F439" s="12"/>
-    </row>
-    <row r="440" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G439" s="12"/>
+    </row>
+    <row r="440" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F440" s="12"/>
-    </row>
-    <row r="441" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G440" s="12"/>
+    </row>
+    <row r="441" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F441" s="12"/>
-    </row>
-    <row r="442" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G441" s="12"/>
+    </row>
+    <row r="442" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F442" s="12"/>
-    </row>
-    <row r="443" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G442" s="12"/>
+    </row>
+    <row r="443" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F443" s="12"/>
-    </row>
-    <row r="444" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G443" s="12"/>
+    </row>
+    <row r="444" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F444" s="12"/>
-    </row>
-    <row r="445" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G444" s="12"/>
+    </row>
+    <row r="445" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F445" s="12"/>
-    </row>
-    <row r="446" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G445" s="12"/>
+    </row>
+    <row r="446" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F446" s="12"/>
-    </row>
-    <row r="447" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G446" s="12"/>
+    </row>
+    <row r="447" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F447" s="12"/>
-    </row>
-    <row r="448" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G447" s="12"/>
+    </row>
+    <row r="448" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F448" s="12"/>
-    </row>
-    <row r="449" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G448" s="12"/>
+    </row>
+    <row r="449" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F449" s="12"/>
-    </row>
-    <row r="450" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G449" s="12"/>
+    </row>
+    <row r="450" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F450" s="12"/>
-    </row>
-    <row r="451" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G450" s="12"/>
+    </row>
+    <row r="451" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F451" s="12"/>
-    </row>
-    <row r="452" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G451" s="12"/>
+    </row>
+    <row r="452" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F452" s="12"/>
-    </row>
-    <row r="453" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G452" s="12"/>
+    </row>
+    <row r="453" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F453" s="12"/>
-    </row>
-    <row r="454" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G453" s="12"/>
+    </row>
+    <row r="454" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F454" s="12"/>
-    </row>
-    <row r="455" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G454" s="12"/>
+    </row>
+    <row r="455" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F455" s="12"/>
-    </row>
-    <row r="456" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G455" s="12"/>
+    </row>
+    <row r="456" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F456" s="12"/>
-    </row>
-    <row r="457" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G456" s="12"/>
+    </row>
+    <row r="457" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F457" s="12"/>
-    </row>
-    <row r="458" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G457" s="12"/>
+    </row>
+    <row r="458" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F458" s="12"/>
-    </row>
-    <row r="459" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G458" s="12"/>
+    </row>
+    <row r="459" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F459" s="12"/>
-    </row>
-    <row r="460" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G459" s="12"/>
+    </row>
+    <row r="460" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F460" s="12"/>
-    </row>
-    <row r="461" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G460" s="12"/>
+    </row>
+    <row r="461" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F461" s="12"/>
-    </row>
-    <row r="462" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G461" s="12"/>
+    </row>
+    <row r="462" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F462" s="12"/>
-    </row>
-    <row r="463" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G462" s="12"/>
+    </row>
+    <row r="463" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F463" s="12"/>
-    </row>
-    <row r="464" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G463" s="12"/>
+    </row>
+    <row r="464" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F464" s="12"/>
-    </row>
-    <row r="465" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G464" s="12"/>
+    </row>
+    <row r="465" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F465" s="12"/>
-    </row>
-    <row r="466" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G465" s="12"/>
+    </row>
+    <row r="466" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F466" s="12"/>
-    </row>
-    <row r="467" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G466" s="12"/>
+    </row>
+    <row r="467" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F467" s="12"/>
-    </row>
-    <row r="468" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G467" s="12"/>
+    </row>
+    <row r="468" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F468" s="12"/>
-    </row>
-    <row r="469" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G468" s="12"/>
+    </row>
+    <row r="469" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F469" s="12"/>
-    </row>
-    <row r="470" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G469" s="12"/>
+    </row>
+    <row r="470" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F470" s="12"/>
-    </row>
-    <row r="471" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G470" s="12"/>
+    </row>
+    <row r="471" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F471" s="12"/>
-    </row>
-    <row r="472" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G471" s="12"/>
+    </row>
+    <row r="472" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F472" s="12"/>
-    </row>
-    <row r="473" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G472" s="12"/>
+    </row>
+    <row r="473" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F473" s="12"/>
-    </row>
-    <row r="474" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G473" s="12"/>
+    </row>
+    <row r="474" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F474" s="12"/>
-    </row>
-    <row r="475" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G474" s="12"/>
+    </row>
+    <row r="475" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F475" s="12"/>
-    </row>
-    <row r="476" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G475" s="12"/>
+    </row>
+    <row r="476" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F476" s="12"/>
-    </row>
-    <row r="477" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G476" s="12"/>
+    </row>
+    <row r="477" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F477" s="12"/>
-    </row>
-    <row r="478" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G477" s="12"/>
+    </row>
+    <row r="478" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F478" s="12"/>
-    </row>
-    <row r="479" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G478" s="12"/>
+    </row>
+    <row r="479" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F479" s="12"/>
-    </row>
-    <row r="480" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G479" s="12"/>
+    </row>
+    <row r="480" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F480" s="12"/>
-    </row>
-    <row r="481" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G480" s="12"/>
+    </row>
+    <row r="481" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F481" s="12"/>
-    </row>
-    <row r="482" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G481" s="12"/>
+    </row>
+    <row r="482" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F482" s="12"/>
-    </row>
-    <row r="483" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G482" s="12"/>
+    </row>
+    <row r="483" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F483" s="12"/>
-    </row>
-    <row r="484" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G483" s="12"/>
+    </row>
+    <row r="484" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F484" s="12"/>
-    </row>
-    <row r="485" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G484" s="12"/>
+    </row>
+    <row r="485" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F485" s="12"/>
-    </row>
-    <row r="486" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G485" s="12"/>
+    </row>
+    <row r="486" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F486" s="12"/>
-    </row>
-    <row r="487" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G486" s="12"/>
+    </row>
+    <row r="487" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F487" s="12"/>
-    </row>
-    <row r="488" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G487" s="12"/>
+    </row>
+    <row r="488" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F488" s="12"/>
-    </row>
-    <row r="489" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G488" s="12"/>
+    </row>
+    <row r="489" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F489" s="12"/>
-    </row>
-    <row r="490" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G489" s="12"/>
+    </row>
+    <row r="490" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F490" s="12"/>
-    </row>
-    <row r="491" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G490" s="12"/>
+    </row>
+    <row r="491" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F491" s="12"/>
-    </row>
-    <row r="492" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G491" s="12"/>
+    </row>
+    <row r="492" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F492" s="12"/>
-    </row>
-    <row r="493" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G492" s="12"/>
+    </row>
+    <row r="493" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F493" s="12"/>
-    </row>
-    <row r="494" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G493" s="12"/>
+    </row>
+    <row r="494" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F494" s="12"/>
-    </row>
-    <row r="495" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G494" s="12"/>
+    </row>
+    <row r="495" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F495" s="12"/>
-    </row>
-    <row r="496" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G495" s="12"/>
+    </row>
+    <row r="496" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F496" s="12"/>
-    </row>
-    <row r="497" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G496" s="12"/>
+    </row>
+    <row r="497" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F497" s="12"/>
-    </row>
-    <row r="498" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G497" s="12"/>
+    </row>
+    <row r="498" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F498" s="12"/>
-    </row>
-    <row r="499" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G498" s="12"/>
+    </row>
+    <row r="499" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F499" s="12"/>
-    </row>
-    <row r="500" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G499" s="12"/>
+    </row>
+    <row r="500" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F500" s="12"/>
-    </row>
-    <row r="501" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G500" s="12"/>
+    </row>
+    <row r="501" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F501" s="12"/>
-    </row>
-    <row r="502" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G501" s="12"/>
+    </row>
+    <row r="502" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F502" s="12"/>
-    </row>
-    <row r="503" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G502" s="12"/>
+    </row>
+    <row r="503" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F503" s="12"/>
-    </row>
-    <row r="504" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G503" s="12"/>
+    </row>
+    <row r="504" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F504" s="12"/>
-    </row>
-    <row r="505" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G504" s="12"/>
+    </row>
+    <row r="505" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F505" s="12"/>
-    </row>
-    <row r="506" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G505" s="12"/>
+    </row>
+    <row r="506" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F506" s="12"/>
-    </row>
-    <row r="507" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G506" s="12"/>
+    </row>
+    <row r="507" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F507" s="12"/>
-    </row>
-    <row r="508" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G507" s="12"/>
+    </row>
+    <row r="508" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F508" s="12"/>
-    </row>
-    <row r="509" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G508" s="12"/>
+    </row>
+    <row r="509" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F509" s="12"/>
-    </row>
-    <row r="510" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G509" s="12"/>
+    </row>
+    <row r="510" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F510" s="12"/>
-    </row>
-    <row r="511" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G510" s="12"/>
+    </row>
+    <row r="511" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F511" s="12"/>
-    </row>
-    <row r="512" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G511" s="12"/>
+    </row>
+    <row r="512" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F512" s="12"/>
-    </row>
-    <row r="513" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G512" s="12"/>
+    </row>
+    <row r="513" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F513" s="12"/>
-    </row>
-    <row r="514" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G513" s="12"/>
+    </row>
+    <row r="514" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F514" s="12"/>
-    </row>
-    <row r="515" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G514" s="12"/>
+    </row>
+    <row r="515" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F515" s="12"/>
-    </row>
-    <row r="516" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G515" s="12"/>
+    </row>
+    <row r="516" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F516" s="12"/>
-    </row>
-    <row r="517" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G516" s="12"/>
+    </row>
+    <row r="517" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F517" s="12"/>
-    </row>
-    <row r="518" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G517" s="12"/>
+    </row>
+    <row r="518" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F518" s="12"/>
-    </row>
-    <row r="519" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G518" s="12"/>
+    </row>
+    <row r="519" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F519" s="12"/>
-    </row>
-    <row r="520" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G519" s="12"/>
+    </row>
+    <row r="520" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F520" s="12"/>
-    </row>
-    <row r="521" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G520" s="12"/>
+    </row>
+    <row r="521" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F521" s="12"/>
-    </row>
-    <row r="522" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G521" s="12"/>
+    </row>
+    <row r="522" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F522" s="12"/>
-    </row>
-    <row r="523" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G522" s="12"/>
+    </row>
+    <row r="523" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F523" s="12"/>
-    </row>
-    <row r="524" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G523" s="12"/>
+    </row>
+    <row r="524" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F524" s="12"/>
-    </row>
-    <row r="525" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G524" s="12"/>
+    </row>
+    <row r="525" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F525" s="12"/>
-    </row>
-    <row r="526" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G525" s="12"/>
+    </row>
+    <row r="526" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F526" s="12"/>
-    </row>
-    <row r="527" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G526" s="12"/>
+    </row>
+    <row r="527" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F527" s="12"/>
-    </row>
-    <row r="528" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G527" s="12"/>
+    </row>
+    <row r="528" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F528" s="12"/>
-    </row>
-    <row r="529" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G528" s="12"/>
+    </row>
+    <row r="529" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F529" s="12"/>
-    </row>
-    <row r="530" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G529" s="12"/>
+    </row>
+    <row r="530" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F530" s="12"/>
-    </row>
-    <row r="531" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G530" s="12"/>
+    </row>
+    <row r="531" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F531" s="12"/>
-    </row>
-    <row r="532" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G531" s="12"/>
+    </row>
+    <row r="532" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F532" s="12"/>
-    </row>
-    <row r="533" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G532" s="12"/>
+    </row>
+    <row r="533" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F533" s="12"/>
-    </row>
-    <row r="534" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G533" s="12"/>
+    </row>
+    <row r="534" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F534" s="12"/>
-    </row>
-    <row r="535" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G534" s="12"/>
+    </row>
+    <row r="535" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F535" s="12"/>
-    </row>
-    <row r="536" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G535" s="12"/>
+    </row>
+    <row r="536" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F536" s="12"/>
-    </row>
-    <row r="537" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G536" s="12"/>
+    </row>
+    <row r="537" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F537" s="12"/>
-    </row>
-    <row r="538" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G537" s="12"/>
+    </row>
+    <row r="538" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F538" s="12"/>
-    </row>
-    <row r="539" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G538" s="12"/>
+    </row>
+    <row r="539" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F539" s="12"/>
-    </row>
-    <row r="540" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G539" s="12"/>
+    </row>
+    <row r="540" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F540" s="12"/>
-    </row>
-    <row r="541" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G540" s="12"/>
+    </row>
+    <row r="541" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F541" s="12"/>
-    </row>
-    <row r="542" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G541" s="12"/>
+    </row>
+    <row r="542" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F542" s="12"/>
-    </row>
-    <row r="543" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G542" s="12"/>
+    </row>
+    <row r="543" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F543" s="12"/>
-    </row>
-    <row r="544" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G543" s="12"/>
+    </row>
+    <row r="544" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F544" s="12"/>
-    </row>
-    <row r="545" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G544" s="12"/>
+    </row>
+    <row r="545" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F545" s="12"/>
-    </row>
-    <row r="546" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G545" s="12"/>
+    </row>
+    <row r="546" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F546" s="12"/>
-    </row>
-    <row r="547" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G546" s="12"/>
+    </row>
+    <row r="547" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F547" s="12"/>
-    </row>
-    <row r="548" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G547" s="12"/>
+    </row>
+    <row r="548" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F548" s="12"/>
-    </row>
-    <row r="549" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G548" s="12"/>
+    </row>
+    <row r="549" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F549" s="12"/>
-    </row>
-    <row r="550" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G549" s="12"/>
+    </row>
+    <row r="550" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F550" s="12"/>
-    </row>
-    <row r="551" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G550" s="12"/>
+    </row>
+    <row r="551" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F551" s="12"/>
-    </row>
-    <row r="552" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G551" s="12"/>
+    </row>
+    <row r="552" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F552" s="12"/>
-    </row>
-    <row r="553" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G552" s="12"/>
+    </row>
+    <row r="553" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F553" s="12"/>
-    </row>
-    <row r="554" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G553" s="12"/>
+    </row>
+    <row r="554" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F554" s="12"/>
-    </row>
-    <row r="555" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G554" s="12"/>
+    </row>
+    <row r="555" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F555" s="12"/>
-    </row>
-    <row r="556" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G555" s="12"/>
+    </row>
+    <row r="556" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F556" s="12"/>
-    </row>
-    <row r="557" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G556" s="12"/>
+    </row>
+    <row r="557" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F557" s="12"/>
-    </row>
-    <row r="558" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G557" s="12"/>
+    </row>
+    <row r="558" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F558" s="12"/>
-    </row>
-    <row r="559" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G558" s="12"/>
+    </row>
+    <row r="559" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F559" s="12"/>
-    </row>
-    <row r="560" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G559" s="12"/>
+    </row>
+    <row r="560" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F560" s="12"/>
-    </row>
-    <row r="561" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G560" s="12"/>
+    </row>
+    <row r="561" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F561" s="12"/>
-    </row>
-    <row r="562" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G561" s="12"/>
+    </row>
+    <row r="562" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F562" s="12"/>
-    </row>
-    <row r="563" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G562" s="12"/>
+    </row>
+    <row r="563" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F563" s="12"/>
-    </row>
-    <row r="564" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G563" s="12"/>
+    </row>
+    <row r="564" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F564" s="12"/>
-    </row>
-    <row r="565" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G564" s="12"/>
+    </row>
+    <row r="565" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F565" s="12"/>
-    </row>
-    <row r="566" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G565" s="12"/>
+    </row>
+    <row r="566" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F566" s="12"/>
-    </row>
-    <row r="567" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G566" s="12"/>
+    </row>
+    <row r="567" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F567" s="12"/>
-    </row>
-    <row r="568" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G567" s="12"/>
+    </row>
+    <row r="568" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F568" s="12"/>
-    </row>
-    <row r="569" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G568" s="12"/>
+    </row>
+    <row r="569" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F569" s="12"/>
-    </row>
-    <row r="570" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G569" s="12"/>
+    </row>
+    <row r="570" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F570" s="12"/>
-    </row>
-    <row r="571" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G570" s="12"/>
+    </row>
+    <row r="571" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F571" s="12"/>
-    </row>
-    <row r="572" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G571" s="12"/>
+    </row>
+    <row r="572" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F572" s="12"/>
-    </row>
-    <row r="573" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G572" s="12"/>
+    </row>
+    <row r="573" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F573" s="12"/>
-    </row>
-    <row r="574" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G573" s="12"/>
+    </row>
+    <row r="574" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F574" s="12"/>
-    </row>
-    <row r="575" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G574" s="12"/>
+    </row>
+    <row r="575" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F575" s="12"/>
-    </row>
-    <row r="576" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G575" s="12"/>
+    </row>
+    <row r="576" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F576" s="12"/>
-    </row>
-    <row r="577" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G576" s="12"/>
+    </row>
+    <row r="577" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F577" s="12"/>
-    </row>
-    <row r="578" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G577" s="12"/>
+    </row>
+    <row r="578" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F578" s="12"/>
-    </row>
-    <row r="579" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G578" s="12"/>
+    </row>
+    <row r="579" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F579" s="12"/>
-    </row>
-    <row r="580" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G579" s="12"/>
+    </row>
+    <row r="580" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F580" s="12"/>
-    </row>
-    <row r="581" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G580" s="12"/>
+    </row>
+    <row r="581" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F581" s="12"/>
-    </row>
-    <row r="582" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G581" s="12"/>
+    </row>
+    <row r="582" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F582" s="12"/>
-    </row>
-    <row r="583" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G582" s="12"/>
+    </row>
+    <row r="583" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F583" s="12"/>
-    </row>
-    <row r="584" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G583" s="12"/>
+    </row>
+    <row r="584" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F584" s="12"/>
-    </row>
-    <row r="585" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G584" s="12"/>
+    </row>
+    <row r="585" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F585" s="12"/>
-    </row>
-    <row r="586" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G585" s="12"/>
+    </row>
+    <row r="586" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F586" s="12"/>
-    </row>
-    <row r="587" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G586" s="12"/>
+    </row>
+    <row r="587" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F587" s="12"/>
-    </row>
-    <row r="588" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G587" s="12"/>
+    </row>
+    <row r="588" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F588" s="12"/>
-    </row>
-    <row r="589" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G588" s="12"/>
+    </row>
+    <row r="589" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F589" s="12"/>
-    </row>
-    <row r="590" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G589" s="12"/>
+    </row>
+    <row r="590" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F590" s="12"/>
-    </row>
-    <row r="591" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G590" s="12"/>
+    </row>
+    <row r="591" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F591" s="12"/>
-    </row>
-    <row r="592" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G591" s="12"/>
+    </row>
+    <row r="592" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F592" s="12"/>
-    </row>
-    <row r="593" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G592" s="12"/>
+    </row>
+    <row r="593" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F593" s="12"/>
-    </row>
-    <row r="594" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G593" s="12"/>
+    </row>
+    <row r="594" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F594" s="12"/>
-    </row>
-    <row r="595" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G594" s="12"/>
+    </row>
+    <row r="595" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F595" s="12"/>
-    </row>
-    <row r="596" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G595" s="12"/>
+    </row>
+    <row r="596" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F596" s="12"/>
-    </row>
-    <row r="597" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G596" s="12"/>
+    </row>
+    <row r="597" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F597" s="12"/>
-    </row>
-    <row r="598" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G597" s="12"/>
+    </row>
+    <row r="598" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F598" s="12"/>
-    </row>
-    <row r="599" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G598" s="12"/>
+    </row>
+    <row r="599" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F599" s="12"/>
-    </row>
-    <row r="600" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G599" s="12"/>
+    </row>
+    <row r="600" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F600" s="12"/>
-    </row>
-    <row r="601" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G600" s="12"/>
+    </row>
+    <row r="601" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F601" s="12"/>
-    </row>
-    <row r="602" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G601" s="12"/>
+    </row>
+    <row r="602" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F602" s="12"/>
-    </row>
-    <row r="603" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G602" s="12"/>
+    </row>
+    <row r="603" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F603" s="12"/>
-    </row>
-    <row r="604" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G603" s="12"/>
+    </row>
+    <row r="604" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F604" s="12"/>
-    </row>
-    <row r="605" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G604" s="12"/>
+    </row>
+    <row r="605" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F605" s="12"/>
-    </row>
-    <row r="606" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G605" s="12"/>
+    </row>
+    <row r="606" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F606" s="12"/>
-    </row>
-    <row r="607" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G606" s="12"/>
+    </row>
+    <row r="607" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F607" s="12"/>
-    </row>
-    <row r="608" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G607" s="12"/>
+    </row>
+    <row r="608" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F608" s="12"/>
-    </row>
-    <row r="609" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G608" s="12"/>
+    </row>
+    <row r="609" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F609" s="12"/>
-    </row>
-    <row r="610" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G609" s="12"/>
+    </row>
+    <row r="610" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F610" s="12"/>
-    </row>
-    <row r="611" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G610" s="12"/>
+    </row>
+    <row r="611" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F611" s="12"/>
-    </row>
-    <row r="612" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G611" s="12"/>
+    </row>
+    <row r="612" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F612" s="12"/>
-    </row>
-    <row r="613" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G612" s="12"/>
+    </row>
+    <row r="613" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F613" s="12"/>
-    </row>
-    <row r="614" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G613" s="12"/>
+    </row>
+    <row r="614" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F614" s="12"/>
-    </row>
-    <row r="615" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G614" s="12"/>
+    </row>
+    <row r="615" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F615" s="12"/>
-    </row>
-    <row r="616" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G615" s="12"/>
+    </row>
+    <row r="616" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F616" s="12"/>
-    </row>
-    <row r="617" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G616" s="12"/>
+    </row>
+    <row r="617" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F617" s="12"/>
-    </row>
-    <row r="618" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G617" s="12"/>
+    </row>
+    <row r="618" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F618" s="12"/>
-    </row>
-    <row r="619" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G618" s="12"/>
+    </row>
+    <row r="619" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F619" s="12"/>
-    </row>
-    <row r="620" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G619" s="12"/>
+    </row>
+    <row r="620" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F620" s="12"/>
-    </row>
-    <row r="621" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G620" s="12"/>
+    </row>
+    <row r="621" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F621" s="12"/>
-    </row>
-    <row r="622" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G621" s="12"/>
+    </row>
+    <row r="622" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F622" s="12"/>
-    </row>
-    <row r="623" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G622" s="12"/>
+    </row>
+    <row r="623" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F623" s="12"/>
-    </row>
-    <row r="624" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G623" s="12"/>
+    </row>
+    <row r="624" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F624" s="12"/>
-    </row>
-    <row r="625" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G624" s="12"/>
+    </row>
+    <row r="625" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F625" s="12"/>
-    </row>
-    <row r="626" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G625" s="12"/>
+    </row>
+    <row r="626" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F626" s="12"/>
-    </row>
-    <row r="627" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G626" s="12"/>
+    </row>
+    <row r="627" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F627" s="12"/>
-    </row>
-    <row r="628" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G627" s="12"/>
+    </row>
+    <row r="628" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F628" s="12"/>
-    </row>
-    <row r="629" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G628" s="12"/>
+    </row>
+    <row r="629" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F629" s="12"/>
-    </row>
-    <row r="630" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G629" s="12"/>
+    </row>
+    <row r="630" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F630" s="12"/>
-    </row>
-    <row r="631" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G630" s="12"/>
+    </row>
+    <row r="631" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F631" s="12"/>
-    </row>
-    <row r="632" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G631" s="12"/>
+    </row>
+    <row r="632" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F632" s="12"/>
-    </row>
-    <row r="633" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G632" s="12"/>
+    </row>
+    <row r="633" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F633" s="12"/>
-    </row>
-    <row r="634" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G633" s="12"/>
+    </row>
+    <row r="634" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F634" s="12"/>
-    </row>
-    <row r="635" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G634" s="12"/>
+    </row>
+    <row r="635" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F635" s="12"/>
-    </row>
-    <row r="636" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G635" s="12"/>
+    </row>
+    <row r="636" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F636" s="12"/>
-    </row>
-    <row r="637" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G636" s="12"/>
+    </row>
+    <row r="637" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F637" s="12"/>
-    </row>
-    <row r="638" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G637" s="12"/>
+    </row>
+    <row r="638" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F638" s="12"/>
-    </row>
-    <row r="639" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G638" s="12"/>
+    </row>
+    <row r="639" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F639" s="12"/>
-    </row>
-    <row r="640" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G639" s="12"/>
+    </row>
+    <row r="640" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F640" s="12"/>
-    </row>
-    <row r="641" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G640" s="12"/>
+    </row>
+    <row r="641" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F641" s="12"/>
-    </row>
-    <row r="642" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G641" s="12"/>
+    </row>
+    <row r="642" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F642" s="12"/>
-    </row>
-    <row r="643" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G642" s="12"/>
+    </row>
+    <row r="643" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F643" s="12"/>
-    </row>
-    <row r="644" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G643" s="12"/>
+    </row>
+    <row r="644" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F644" s="12"/>
-    </row>
-    <row r="645" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G644" s="12"/>
+    </row>
+    <row r="645" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F645" s="12"/>
-    </row>
-    <row r="646" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G645" s="12"/>
+    </row>
+    <row r="646" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F646" s="12"/>
-    </row>
-    <row r="647" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G646" s="12"/>
+    </row>
+    <row r="647" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F647" s="12"/>
-    </row>
-    <row r="648" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G647" s="12"/>
+    </row>
+    <row r="648" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F648" s="12"/>
-    </row>
-    <row r="649" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G648" s="12"/>
+    </row>
+    <row r="649" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F649" s="12"/>
-    </row>
-    <row r="650" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G649" s="12"/>
+    </row>
+    <row r="650" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F650" s="12"/>
-    </row>
-    <row r="651" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G650" s="12"/>
+    </row>
+    <row r="651" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F651" s="12"/>
-    </row>
-    <row r="652" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G651" s="12"/>
+    </row>
+    <row r="652" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F652" s="12"/>
-    </row>
-    <row r="653" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G652" s="12"/>
+    </row>
+    <row r="653" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F653" s="12"/>
-    </row>
-    <row r="654" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G653" s="12"/>
+    </row>
+    <row r="654" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F654" s="12"/>
-    </row>
-    <row r="655" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G654" s="12"/>
+    </row>
+    <row r="655" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F655" s="12"/>
-    </row>
-    <row r="656" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G655" s="12"/>
+    </row>
+    <row r="656" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F656" s="12"/>
-    </row>
-    <row r="657" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G656" s="12"/>
+    </row>
+    <row r="657" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F657" s="12"/>
-    </row>
-    <row r="658" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G657" s="12"/>
+    </row>
+    <row r="658" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F658" s="12"/>
-    </row>
-    <row r="659" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G658" s="12"/>
+    </row>
+    <row r="659" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F659" s="12"/>
-    </row>
-    <row r="660" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G659" s="12"/>
+    </row>
+    <row r="660" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F660" s="12"/>
-    </row>
-    <row r="661" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G660" s="12"/>
+    </row>
+    <row r="661" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F661" s="12"/>
-    </row>
-    <row r="662" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G661" s="12"/>
+    </row>
+    <row r="662" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F662" s="12"/>
-    </row>
-    <row r="663" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G662" s="12"/>
+    </row>
+    <row r="663" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F663" s="12"/>
-    </row>
-    <row r="664" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G663" s="12"/>
+    </row>
+    <row r="664" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F664" s="12"/>
-    </row>
-    <row r="665" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G664" s="12"/>
+    </row>
+    <row r="665" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F665" s="12"/>
-    </row>
-    <row r="666" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G665" s="12"/>
+    </row>
+    <row r="666" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F666" s="12"/>
-    </row>
-    <row r="667" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G666" s="12"/>
+    </row>
+    <row r="667" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F667" s="12"/>
-    </row>
-    <row r="668" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G667" s="12"/>
+    </row>
+    <row r="668" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F668" s="12"/>
-    </row>
-    <row r="669" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G668" s="12"/>
+    </row>
+    <row r="669" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F669" s="12"/>
-    </row>
-    <row r="670" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G669" s="12"/>
+    </row>
+    <row r="670" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F670" s="12"/>
-    </row>
-    <row r="671" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G670" s="12"/>
+    </row>
+    <row r="671" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F671" s="12"/>
-    </row>
-    <row r="672" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G671" s="12"/>
+    </row>
+    <row r="672" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F672" s="12"/>
-    </row>
-    <row r="673" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G672" s="12"/>
+    </row>
+    <row r="673" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F673" s="12"/>
-    </row>
-    <row r="674" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G673" s="12"/>
+    </row>
+    <row r="674" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F674" s="12"/>
-    </row>
-    <row r="675" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G674" s="12"/>
+    </row>
+    <row r="675" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F675" s="12"/>
-    </row>
-    <row r="676" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G675" s="12"/>
+    </row>
+    <row r="676" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F676" s="12"/>
-    </row>
-    <row r="677" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G676" s="12"/>
+    </row>
+    <row r="677" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F677" s="12"/>
-    </row>
-    <row r="678" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G677" s="12"/>
+    </row>
+    <row r="678" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F678" s="12"/>
-    </row>
-    <row r="679" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G678" s="12"/>
+    </row>
+    <row r="679" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F679" s="12"/>
-    </row>
-    <row r="680" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G679" s="12"/>
+    </row>
+    <row r="680" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F680" s="12"/>
-    </row>
-    <row r="681" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G680" s="12"/>
+    </row>
+    <row r="681" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F681" s="12"/>
-    </row>
-    <row r="682" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G681" s="12"/>
+    </row>
+    <row r="682" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F682" s="12"/>
-    </row>
-    <row r="683" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G682" s="12"/>
+    </row>
+    <row r="683" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F683" s="12"/>
-    </row>
-    <row r="684" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G683" s="12"/>
+    </row>
+    <row r="684" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F684" s="12"/>
-    </row>
-    <row r="685" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G684" s="12"/>
+    </row>
+    <row r="685" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F685" s="12"/>
-    </row>
-    <row r="686" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G685" s="12"/>
+    </row>
+    <row r="686" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F686" s="12"/>
-    </row>
-    <row r="687" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G686" s="12"/>
+    </row>
+    <row r="687" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F687" s="12"/>
-    </row>
-    <row r="688" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G687" s="12"/>
+    </row>
+    <row r="688" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F688" s="12"/>
-    </row>
-    <row r="689" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G688" s="12"/>
+    </row>
+    <row r="689" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F689" s="12"/>
-    </row>
-    <row r="690" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G689" s="12"/>
+    </row>
+    <row r="690" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F690" s="12"/>
-    </row>
-    <row r="691" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G690" s="12"/>
+    </row>
+    <row r="691" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F691" s="12"/>
-    </row>
-    <row r="692" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G691" s="12"/>
+    </row>
+    <row r="692" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F692" s="12"/>
-    </row>
-    <row r="693" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G692" s="12"/>
+    </row>
+    <row r="693" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F693" s="12"/>
-    </row>
-    <row r="694" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G693" s="12"/>
+    </row>
+    <row r="694" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F694" s="12"/>
-    </row>
-    <row r="695" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G694" s="12"/>
+    </row>
+    <row r="695" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F695" s="12"/>
-    </row>
-    <row r="696" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G695" s="12"/>
+    </row>
+    <row r="696" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F696" s="12"/>
-    </row>
-    <row r="697" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G696" s="12"/>
+    </row>
+    <row r="697" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F697" s="12"/>
-    </row>
-    <row r="698" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G697" s="12"/>
+    </row>
+    <row r="698" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F698" s="12"/>
-    </row>
-    <row r="699" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G698" s="12"/>
+    </row>
+    <row r="699" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F699" s="12"/>
-    </row>
-    <row r="700" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G699" s="12"/>
+    </row>
+    <row r="700" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F700" s="12"/>
-    </row>
-    <row r="701" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G700" s="12"/>
+    </row>
+    <row r="701" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F701" s="12"/>
-    </row>
-    <row r="702" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G701" s="12"/>
+    </row>
+    <row r="702" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F702" s="12"/>
-    </row>
-    <row r="703" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G702" s="12"/>
+    </row>
+    <row r="703" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F703" s="12"/>
-    </row>
-    <row r="704" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G703" s="12"/>
+    </row>
+    <row r="704" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F704" s="12"/>
-    </row>
-    <row r="705" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G704" s="12"/>
+    </row>
+    <row r="705" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F705" s="12"/>
-    </row>
-    <row r="706" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G705" s="12"/>
+    </row>
+    <row r="706" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F706" s="12"/>
-    </row>
-    <row r="707" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G706" s="12"/>
+    </row>
+    <row r="707" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F707" s="12"/>
-    </row>
-    <row r="708" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G707" s="12"/>
+    </row>
+    <row r="708" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F708" s="12"/>
-    </row>
-    <row r="709" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G708" s="12"/>
+    </row>
+    <row r="709" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F709" s="12"/>
-    </row>
-    <row r="710" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G709" s="12"/>
+    </row>
+    <row r="710" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F710" s="12"/>
-    </row>
-    <row r="711" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G710" s="12"/>
+    </row>
+    <row r="711" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F711" s="12"/>
-    </row>
-    <row r="712" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G711" s="12"/>
+    </row>
+    <row r="712" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F712" s="12"/>
-    </row>
-    <row r="713" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G712" s="12"/>
+    </row>
+    <row r="713" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F713" s="12"/>
-    </row>
-    <row r="714" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G713" s="12"/>
+    </row>
+    <row r="714" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F714" s="12"/>
-    </row>
-    <row r="715" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G714" s="12"/>
+    </row>
+    <row r="715" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F715" s="12"/>
-    </row>
-    <row r="716" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G715" s="12"/>
+    </row>
+    <row r="716" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F716" s="12"/>
-    </row>
-    <row r="717" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G716" s="12"/>
+    </row>
+    <row r="717" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F717" s="12"/>
-    </row>
-    <row r="718" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G717" s="12"/>
+    </row>
+    <row r="718" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F718" s="12"/>
-    </row>
-    <row r="719" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G718" s="12"/>
+    </row>
+    <row r="719" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F719" s="12"/>
-    </row>
-    <row r="720" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G719" s="12"/>
+    </row>
+    <row r="720" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F720" s="12"/>
-    </row>
-    <row r="721" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G720" s="12"/>
+    </row>
+    <row r="721" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F721" s="12"/>
-    </row>
-    <row r="722" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G721" s="12"/>
+    </row>
+    <row r="722" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F722" s="12"/>
-    </row>
-    <row r="723" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G722" s="12"/>
+    </row>
+    <row r="723" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F723" s="12"/>
-    </row>
-    <row r="724" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G723" s="12"/>
+    </row>
+    <row r="724" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F724" s="12"/>
-    </row>
-    <row r="725" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G724" s="12"/>
+    </row>
+    <row r="725" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F725" s="12"/>
-    </row>
-    <row r="726" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G725" s="12"/>
+    </row>
+    <row r="726" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F726" s="12"/>
-    </row>
-    <row r="727" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G726" s="12"/>
+    </row>
+    <row r="727" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F727" s="12"/>
-    </row>
-    <row r="728" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G727" s="12"/>
+    </row>
+    <row r="728" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F728" s="12"/>
-    </row>
-    <row r="729" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G728" s="12"/>
+    </row>
+    <row r="729" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F729" s="12"/>
-    </row>
-    <row r="730" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G729" s="12"/>
+    </row>
+    <row r="730" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F730" s="12"/>
-    </row>
-    <row r="731" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G730" s="12"/>
+    </row>
+    <row r="731" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F731" s="12"/>
-    </row>
-    <row r="732" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G731" s="12"/>
+    </row>
+    <row r="732" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F732" s="12"/>
-    </row>
-    <row r="733" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G732" s="12"/>
+    </row>
+    <row r="733" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F733" s="12"/>
-    </row>
-    <row r="734" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G733" s="12"/>
+    </row>
+    <row r="734" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F734" s="12"/>
-    </row>
-    <row r="735" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G734" s="12"/>
+    </row>
+    <row r="735" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F735" s="12"/>
-    </row>
-    <row r="736" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G735" s="12"/>
+    </row>
+    <row r="736" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F736" s="12"/>
-    </row>
-    <row r="737" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G736" s="12"/>
+    </row>
+    <row r="737" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F737" s="12"/>
-    </row>
-    <row r="738" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G737" s="12"/>
+    </row>
+    <row r="738" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F738" s="12"/>
-    </row>
-    <row r="739" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G738" s="12"/>
+    </row>
+    <row r="739" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F739" s="12"/>
-    </row>
-    <row r="740" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G739" s="12"/>
+    </row>
+    <row r="740" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F740" s="12"/>
-    </row>
-    <row r="741" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G740" s="12"/>
+    </row>
+    <row r="741" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F741" s="12"/>
-    </row>
-    <row r="742" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G741" s="12"/>
+    </row>
+    <row r="742" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F742" s="12"/>
-    </row>
-    <row r="743" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G742" s="12"/>
+    </row>
+    <row r="743" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F743" s="12"/>
-    </row>
-    <row r="744" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G743" s="12"/>
+    </row>
+    <row r="744" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F744" s="12"/>
-    </row>
-    <row r="745" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G744" s="12"/>
+    </row>
+    <row r="745" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F745" s="12"/>
-    </row>
-    <row r="746" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G745" s="12"/>
+    </row>
+    <row r="746" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F746" s="12"/>
-    </row>
-    <row r="747" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G746" s="12"/>
+    </row>
+    <row r="747" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F747" s="12"/>
-    </row>
-    <row r="748" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G747" s="12"/>
+    </row>
+    <row r="748" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F748" s="12"/>
-    </row>
-    <row r="749" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G748" s="12"/>
+    </row>
+    <row r="749" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F749" s="12"/>
-    </row>
-    <row r="750" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G749" s="12"/>
+    </row>
+    <row r="750" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F750" s="12"/>
-    </row>
-    <row r="751" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G750" s="12"/>
+    </row>
+    <row r="751" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F751" s="12"/>
-    </row>
-    <row r="752" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G751" s="12"/>
+    </row>
+    <row r="752" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F752" s="12"/>
-    </row>
-    <row r="753" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G752" s="12"/>
+    </row>
+    <row r="753" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F753" s="12"/>
-    </row>
-    <row r="754" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G753" s="12"/>
+    </row>
+    <row r="754" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F754" s="12"/>
-    </row>
-    <row r="755" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G754" s="12"/>
+    </row>
+    <row r="755" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F755" s="12"/>
-    </row>
-    <row r="756" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G755" s="12"/>
+    </row>
+    <row r="756" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F756" s="12"/>
-    </row>
-    <row r="757" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G756" s="12"/>
+    </row>
+    <row r="757" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F757" s="12"/>
-    </row>
-    <row r="758" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G757" s="12"/>
+    </row>
+    <row r="758" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F758" s="12"/>
-    </row>
-    <row r="759" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G758" s="12"/>
+    </row>
+    <row r="759" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F759" s="12"/>
-    </row>
-    <row r="760" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G759" s="12"/>
+    </row>
+    <row r="760" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F760" s="12"/>
-    </row>
-    <row r="761" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G760" s="12"/>
+    </row>
+    <row r="761" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F761" s="12"/>
-    </row>
-    <row r="762" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G761" s="12"/>
+    </row>
+    <row r="762" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F762" s="12"/>
-    </row>
-    <row r="763" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G762" s="12"/>
+    </row>
+    <row r="763" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F763" s="12"/>
-    </row>
-    <row r="764" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G763" s="12"/>
+    </row>
+    <row r="764" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F764" s="12"/>
-    </row>
-    <row r="765" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G764" s="12"/>
+    </row>
+    <row r="765" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F765" s="12"/>
-    </row>
-    <row r="766" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G765" s="12"/>
+    </row>
+    <row r="766" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F766" s="12"/>
-    </row>
-    <row r="767" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G766" s="12"/>
+    </row>
+    <row r="767" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F767" s="12"/>
-    </row>
-    <row r="768" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G767" s="12"/>
+    </row>
+    <row r="768" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F768" s="12"/>
-    </row>
-    <row r="769" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G768" s="12"/>
+    </row>
+    <row r="769" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F769" s="12"/>
-    </row>
-    <row r="770" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G769" s="12"/>
+    </row>
+    <row r="770" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F770" s="12"/>
-    </row>
-    <row r="771" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G770" s="12"/>
+    </row>
+    <row r="771" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F771" s="12"/>
-    </row>
-    <row r="772" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G771" s="12"/>
+    </row>
+    <row r="772" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F772" s="12"/>
-    </row>
-    <row r="773" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G772" s="12"/>
+    </row>
+    <row r="773" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F773" s="12"/>
-    </row>
-    <row r="774" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G773" s="12"/>
+    </row>
+    <row r="774" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F774" s="12"/>
-    </row>
-    <row r="775" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G774" s="12"/>
+    </row>
+    <row r="775" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F775" s="12"/>
-    </row>
-    <row r="776" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G775" s="12"/>
+    </row>
+    <row r="776" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F776" s="12"/>
-    </row>
-    <row r="777" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G776" s="12"/>
+    </row>
+    <row r="777" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F777" s="12"/>
-    </row>
-    <row r="778" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G777" s="12"/>
+    </row>
+    <row r="778" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F778" s="12"/>
-    </row>
-    <row r="779" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G778" s="12"/>
+    </row>
+    <row r="779" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F779" s="12"/>
-    </row>
-    <row r="780" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G779" s="12"/>
+    </row>
+    <row r="780" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F780" s="12"/>
-    </row>
-    <row r="781" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G780" s="12"/>
+    </row>
+    <row r="781" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F781" s="12"/>
-    </row>
-    <row r="782" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G781" s="12"/>
+    </row>
+    <row r="782" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F782" s="12"/>
-    </row>
-    <row r="783" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G782" s="12"/>
+    </row>
+    <row r="783" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F783" s="12"/>
-    </row>
-    <row r="784" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G783" s="12"/>
+    </row>
+    <row r="784" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F784" s="12"/>
-    </row>
-    <row r="785" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G784" s="12"/>
+    </row>
+    <row r="785" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F785" s="12"/>
-    </row>
-    <row r="786" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G785" s="12"/>
+    </row>
+    <row r="786" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F786" s="12"/>
-    </row>
-    <row r="787" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G786" s="12"/>
+    </row>
+    <row r="787" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F787" s="12"/>
-    </row>
-    <row r="788" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G787" s="12"/>
+    </row>
+    <row r="788" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F788" s="12"/>
-    </row>
-    <row r="789" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G788" s="12"/>
+    </row>
+    <row r="789" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F789" s="12"/>
-    </row>
-    <row r="790" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G789" s="12"/>
+    </row>
+    <row r="790" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F790" s="12"/>
-    </row>
-    <row r="791" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G790" s="12"/>
+    </row>
+    <row r="791" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F791" s="12"/>
-    </row>
-    <row r="792" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G791" s="12"/>
+    </row>
+    <row r="792" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F792" s="12"/>
-    </row>
-    <row r="793" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G792" s="12"/>
+    </row>
+    <row r="793" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F793" s="12"/>
-    </row>
-    <row r="794" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G793" s="12"/>
+    </row>
+    <row r="794" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F794" s="12"/>
-    </row>
-    <row r="795" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G794" s="12"/>
+    </row>
+    <row r="795" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F795" s="12"/>
-    </row>
-    <row r="796" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G795" s="12"/>
+    </row>
+    <row r="796" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F796" s="12"/>
-    </row>
-    <row r="797" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G796" s="12"/>
+    </row>
+    <row r="797" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F797" s="12"/>
-    </row>
-    <row r="798" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G797" s="12"/>
+    </row>
+    <row r="798" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F798" s="12"/>
-    </row>
-    <row r="799" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G798" s="12"/>
+    </row>
+    <row r="799" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F799" s="12"/>
-    </row>
-    <row r="800" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G799" s="12"/>
+    </row>
+    <row r="800" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F800" s="12"/>
-    </row>
-    <row r="801" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G800" s="12"/>
+    </row>
+    <row r="801" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F801" s="12"/>
-    </row>
-    <row r="802" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G801" s="12"/>
+    </row>
+    <row r="802" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F802" s="12"/>
-    </row>
-    <row r="803" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G802" s="12"/>
+    </row>
+    <row r="803" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F803" s="12"/>
-    </row>
-    <row r="804" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G803" s="12"/>
+    </row>
+    <row r="804" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F804" s="12"/>
-    </row>
-    <row r="805" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G804" s="12"/>
+    </row>
+    <row r="805" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F805" s="12"/>
-    </row>
-    <row r="806" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G805" s="12"/>
+    </row>
+    <row r="806" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F806" s="12"/>
-    </row>
-    <row r="807" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G806" s="12"/>
+    </row>
+    <row r="807" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F807" s="12"/>
-    </row>
-    <row r="808" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G807" s="12"/>
+    </row>
+    <row r="808" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F808" s="12"/>
-    </row>
-    <row r="809" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G808" s="12"/>
+    </row>
+    <row r="809" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F809" s="12"/>
-    </row>
-    <row r="810" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G809" s="12"/>
+    </row>
+    <row r="810" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F810" s="12"/>
-    </row>
-    <row r="811" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G810" s="12"/>
+    </row>
+    <row r="811" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F811" s="12"/>
-    </row>
-    <row r="812" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G811" s="12"/>
+    </row>
+    <row r="812" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F812" s="12"/>
-    </row>
-    <row r="813" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G812" s="12"/>
+    </row>
+    <row r="813" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F813" s="12"/>
-    </row>
-    <row r="814" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G813" s="12"/>
+    </row>
+    <row r="814" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F814" s="12"/>
-    </row>
-    <row r="815" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G814" s="12"/>
+    </row>
+    <row r="815" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F815" s="12"/>
-    </row>
-    <row r="816" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G815" s="12"/>
+    </row>
+    <row r="816" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F816" s="12"/>
-    </row>
-    <row r="817" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G816" s="12"/>
+    </row>
+    <row r="817" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F817" s="12"/>
-    </row>
-    <row r="818" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G817" s="12"/>
+    </row>
+    <row r="818" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F818" s="12"/>
-    </row>
-    <row r="819" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G818" s="12"/>
+    </row>
+    <row r="819" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F819" s="12"/>
-    </row>
-    <row r="820" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G819" s="12"/>
+    </row>
+    <row r="820" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F820" s="12"/>
-    </row>
-    <row r="821" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G820" s="12"/>
+    </row>
+    <row r="821" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F821" s="12"/>
-    </row>
-    <row r="822" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G821" s="12"/>
+    </row>
+    <row r="822" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F822" s="12"/>
-    </row>
-    <row r="823" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G822" s="12"/>
+    </row>
+    <row r="823" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F823" s="12"/>
-    </row>
-    <row r="824" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G823" s="12"/>
+    </row>
+    <row r="824" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F824" s="12"/>
-    </row>
-    <row r="825" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G824" s="12"/>
+    </row>
+    <row r="825" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F825" s="12"/>
-    </row>
-    <row r="826" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G825" s="12"/>
+    </row>
+    <row r="826" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F826" s="12"/>
-    </row>
-    <row r="827" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G826" s="12"/>
+    </row>
+    <row r="827" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F827" s="12"/>
-    </row>
-    <row r="828" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G827" s="12"/>
+    </row>
+    <row r="828" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F828" s="12"/>
-    </row>
-    <row r="829" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G828" s="12"/>
+    </row>
+    <row r="829" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F829" s="12"/>
-    </row>
-    <row r="830" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G829" s="12"/>
+    </row>
+    <row r="830" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F830" s="12"/>
-    </row>
-    <row r="831" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G830" s="12"/>
+    </row>
+    <row r="831" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F831" s="12"/>
-    </row>
-    <row r="832" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G831" s="12"/>
+    </row>
+    <row r="832" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F832" s="12"/>
-    </row>
-    <row r="833" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G832" s="12"/>
+    </row>
+    <row r="833" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F833" s="12"/>
-    </row>
-    <row r="834" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G833" s="12"/>
+    </row>
+    <row r="834" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F834" s="12"/>
-    </row>
-    <row r="835" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G834" s="12"/>
+    </row>
+    <row r="835" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F835" s="12"/>
-    </row>
-    <row r="836" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G835" s="12"/>
+    </row>
+    <row r="836" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F836" s="12"/>
-    </row>
-    <row r="837" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G836" s="12"/>
+    </row>
+    <row r="837" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F837" s="12"/>
-    </row>
-    <row r="838" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G837" s="12"/>
+    </row>
+    <row r="838" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F838" s="12"/>
-    </row>
-    <row r="839" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G838" s="12"/>
+    </row>
+    <row r="839" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F839" s="12"/>
-    </row>
-    <row r="840" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G839" s="12"/>
+    </row>
+    <row r="840" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F840" s="12"/>
-    </row>
-    <row r="841" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G840" s="12"/>
+    </row>
+    <row r="841" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F841" s="12"/>
-    </row>
-    <row r="842" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G841" s="12"/>
+    </row>
+    <row r="842" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F842" s="12"/>
-    </row>
-    <row r="843" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G842" s="12"/>
+    </row>
+    <row r="843" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F843" s="12"/>
-    </row>
-    <row r="844" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G843" s="12"/>
+    </row>
+    <row r="844" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F844" s="12"/>
-    </row>
-    <row r="845" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G844" s="12"/>
+    </row>
+    <row r="845" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F845" s="12"/>
-    </row>
-    <row r="846" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G845" s="12"/>
+    </row>
+    <row r="846" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F846" s="12"/>
-    </row>
-    <row r="847" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G846" s="12"/>
+    </row>
+    <row r="847" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F847" s="12"/>
-    </row>
-    <row r="848" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G847" s="12"/>
+    </row>
+    <row r="848" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F848" s="12"/>
-    </row>
-    <row r="849" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G848" s="12"/>
+    </row>
+    <row r="849" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F849" s="12"/>
-    </row>
-    <row r="850" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G849" s="12"/>
+    </row>
+    <row r="850" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F850" s="12"/>
-    </row>
-    <row r="851" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G850" s="12"/>
+    </row>
+    <row r="851" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F851" s="12"/>
-    </row>
-    <row r="852" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G851" s="12"/>
+    </row>
+    <row r="852" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F852" s="12"/>
-    </row>
-    <row r="853" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G852" s="12"/>
+    </row>
+    <row r="853" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F853" s="12"/>
-    </row>
-    <row r="854" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G853" s="12"/>
+    </row>
+    <row r="854" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F854" s="12"/>
-    </row>
-    <row r="855" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G854" s="12"/>
+    </row>
+    <row r="855" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F855" s="12"/>
-    </row>
-    <row r="856" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G855" s="12"/>
+    </row>
+    <row r="856" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F856" s="12"/>
-    </row>
-    <row r="857" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G856" s="12"/>
+    </row>
+    <row r="857" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F857" s="12"/>
-    </row>
-    <row r="858" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G857" s="12"/>
+    </row>
+    <row r="858" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F858" s="12"/>
-    </row>
-    <row r="859" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G858" s="12"/>
+    </row>
+    <row r="859" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F859" s="12"/>
-    </row>
-    <row r="860" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G859" s="12"/>
+    </row>
+    <row r="860" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F860" s="12"/>
-    </row>
-    <row r="861" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G860" s="12"/>
+    </row>
+    <row r="861" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F861" s="12"/>
-    </row>
-    <row r="862" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G861" s="12"/>
+    </row>
+    <row r="862" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F862" s="12"/>
-    </row>
-    <row r="863" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G862" s="12"/>
+    </row>
+    <row r="863" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F863" s="12"/>
-    </row>
-    <row r="864" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G863" s="12"/>
+    </row>
+    <row r="864" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F864" s="12"/>
-    </row>
-    <row r="865" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G864" s="12"/>
+    </row>
+    <row r="865" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F865" s="12"/>
-    </row>
-    <row r="866" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G865" s="12"/>
+    </row>
+    <row r="866" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F866" s="12"/>
-    </row>
-    <row r="867" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G866" s="12"/>
+    </row>
+    <row r="867" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F867" s="12"/>
-    </row>
-    <row r="868" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G867" s="12"/>
+    </row>
+    <row r="868" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F868" s="12"/>
-    </row>
-    <row r="869" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G868" s="12"/>
+    </row>
+    <row r="869" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F869" s="12"/>
-    </row>
-    <row r="870" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G869" s="12"/>
+    </row>
+    <row r="870" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F870" s="12"/>
-    </row>
-    <row r="871" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G870" s="12"/>
+    </row>
+    <row r="871" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F871" s="12"/>
-    </row>
-    <row r="872" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G871" s="12"/>
+    </row>
+    <row r="872" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F872" s="12"/>
-    </row>
-    <row r="873" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G872" s="12"/>
+    </row>
+    <row r="873" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F873" s="12"/>
-    </row>
-    <row r="874" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G873" s="12"/>
+    </row>
+    <row r="874" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F874" s="12"/>
-    </row>
-    <row r="875" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G874" s="12"/>
+    </row>
+    <row r="875" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F875" s="12"/>
-    </row>
-    <row r="876" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G875" s="12"/>
+    </row>
+    <row r="876" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F876" s="12"/>
-    </row>
-    <row r="877" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G876" s="12"/>
+    </row>
+    <row r="877" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F877" s="12"/>
-    </row>
-    <row r="878" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G877" s="12"/>
+    </row>
+    <row r="878" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F878" s="12"/>
-    </row>
-    <row r="879" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G878" s="12"/>
+    </row>
+    <row r="879" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F879" s="12"/>
-    </row>
-    <row r="880" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G879" s="12"/>
+    </row>
+    <row r="880" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F880" s="12"/>
-    </row>
-    <row r="881" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G880" s="12"/>
+    </row>
+    <row r="881" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F881" s="12"/>
-    </row>
-    <row r="882" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G881" s="12"/>
+    </row>
+    <row r="882" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F882" s="12"/>
-    </row>
-    <row r="883" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G882" s="12"/>
+    </row>
+    <row r="883" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F883" s="12"/>
-    </row>
-    <row r="884" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G883" s="12"/>
+    </row>
+    <row r="884" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F884" s="12"/>
-    </row>
-    <row r="885" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G884" s="12"/>
+    </row>
+    <row r="885" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F885" s="12"/>
-    </row>
-    <row r="886" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G885" s="12"/>
+    </row>
+    <row r="886" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F886" s="12"/>
-    </row>
-    <row r="887" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G886" s="12"/>
+    </row>
+    <row r="887" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F887" s="12"/>
-    </row>
-    <row r="888" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G887" s="12"/>
+    </row>
+    <row r="888" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F888" s="12"/>
-    </row>
-    <row r="889" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G888" s="12"/>
+    </row>
+    <row r="889" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F889" s="12"/>
-    </row>
-    <row r="890" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G889" s="12"/>
+    </row>
+    <row r="890" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F890" s="12"/>
-    </row>
-    <row r="891" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G890" s="12"/>
+    </row>
+    <row r="891" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F891" s="12"/>
-    </row>
-    <row r="892" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G891" s="12"/>
+    </row>
+    <row r="892" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F892" s="12"/>
-    </row>
-    <row r="893" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G892" s="12"/>
+    </row>
+    <row r="893" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F893" s="12"/>
-    </row>
-    <row r="894" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G893" s="12"/>
+    </row>
+    <row r="894" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F894" s="12"/>
-    </row>
-    <row r="895" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G894" s="12"/>
+    </row>
+    <row r="895" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F895" s="12"/>
-    </row>
-    <row r="896" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G895" s="12"/>
+    </row>
+    <row r="896" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F896" s="12"/>
-    </row>
-    <row r="897" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G896" s="12"/>
+    </row>
+    <row r="897" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F897" s="12"/>
-    </row>
-    <row r="898" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G897" s="12"/>
+    </row>
+    <row r="898" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F898" s="12"/>
-    </row>
-    <row r="899" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G898" s="12"/>
+    </row>
+    <row r="899" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F899" s="12"/>
-    </row>
-    <row r="900" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G899" s="12"/>
+    </row>
+    <row r="900" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F900" s="12"/>
-    </row>
-    <row r="901" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G900" s="12"/>
+    </row>
+    <row r="901" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F901" s="12"/>
-    </row>
-    <row r="902" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G901" s="12"/>
+    </row>
+    <row r="902" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F902" s="12"/>
-    </row>
-    <row r="903" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G902" s="12"/>
+    </row>
+    <row r="903" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F903" s="12"/>
-    </row>
-    <row r="904" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G903" s="12"/>
+    </row>
+    <row r="904" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F904" s="12"/>
-    </row>
-    <row r="905" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G904" s="12"/>
+    </row>
+    <row r="905" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F905" s="12"/>
-    </row>
-    <row r="906" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G905" s="12"/>
+    </row>
+    <row r="906" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F906" s="12"/>
-    </row>
-    <row r="907" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G906" s="12"/>
+    </row>
+    <row r="907" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F907" s="12"/>
-    </row>
-    <row r="908" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G907" s="12"/>
+    </row>
+    <row r="908" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F908" s="12"/>
-    </row>
-    <row r="909" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G908" s="12"/>
+    </row>
+    <row r="909" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F909" s="12"/>
-    </row>
-    <row r="910" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G909" s="12"/>
+    </row>
+    <row r="910" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F910" s="12"/>
-    </row>
-    <row r="911" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G910" s="12"/>
+    </row>
+    <row r="911" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F911" s="12"/>
-    </row>
-    <row r="912" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G911" s="12"/>
+    </row>
+    <row r="912" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F912" s="12"/>
-    </row>
-    <row r="913" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G912" s="12"/>
+    </row>
+    <row r="913" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F913" s="12"/>
-    </row>
-    <row r="914" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G913" s="12"/>
+    </row>
+    <row r="914" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F914" s="12"/>
-    </row>
-    <row r="915" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G914" s="12"/>
+    </row>
+    <row r="915" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F915" s="12"/>
-    </row>
-    <row r="916" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G915" s="12"/>
+    </row>
+    <row r="916" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F916" s="12"/>
-    </row>
-    <row r="917" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G916" s="12"/>
+    </row>
+    <row r="917" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F917" s="12"/>
-    </row>
-    <row r="918" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G917" s="12"/>
+    </row>
+    <row r="918" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F918" s="12"/>
-    </row>
-    <row r="919" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G918" s="12"/>
+    </row>
+    <row r="919" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F919" s="12"/>
-    </row>
-    <row r="920" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G919" s="12"/>
+    </row>
+    <row r="920" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F920" s="12"/>
-    </row>
-    <row r="921" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G920" s="12"/>
+    </row>
+    <row r="921" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F921" s="12"/>
-    </row>
-    <row r="922" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G921" s="12"/>
+    </row>
+    <row r="922" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F922" s="12"/>
-    </row>
-    <row r="923" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G922" s="12"/>
+    </row>
+    <row r="923" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F923" s="12"/>
-    </row>
-    <row r="924" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G923" s="12"/>
+    </row>
+    <row r="924" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F924" s="12"/>
-    </row>
-    <row r="925" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G924" s="12"/>
+    </row>
+    <row r="925" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F925" s="12"/>
-    </row>
-    <row r="926" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G925" s="12"/>
+    </row>
+    <row r="926" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F926" s="12"/>
-    </row>
-    <row r="927" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G926" s="12"/>
+    </row>
+    <row r="927" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F927" s="12"/>
-    </row>
-    <row r="928" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G927" s="12"/>
+    </row>
+    <row r="928" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F928" s="12"/>
-    </row>
-    <row r="929" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G928" s="12"/>
+    </row>
+    <row r="929" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F929" s="12"/>
-    </row>
-    <row r="930" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G929" s="12"/>
+    </row>
+    <row r="930" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F930" s="12"/>
-    </row>
-    <row r="931" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G930" s="12"/>
+    </row>
+    <row r="931" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F931" s="12"/>
-    </row>
-    <row r="932" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G931" s="12"/>
+    </row>
+    <row r="932" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F932" s="12"/>
-    </row>
-    <row r="933" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G932" s="12"/>
+    </row>
+    <row r="933" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F933" s="12"/>
-    </row>
-    <row r="934" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G933" s="12"/>
+    </row>
+    <row r="934" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F934" s="12"/>
-    </row>
-    <row r="935" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G934" s="12"/>
+    </row>
+    <row r="935" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F935" s="12"/>
-    </row>
-    <row r="936" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G935" s="12"/>
+    </row>
+    <row r="936" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F936" s="12"/>
-    </row>
-    <row r="937" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G936" s="12"/>
+    </row>
+    <row r="937" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F937" s="12"/>
-    </row>
-    <row r="938" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G937" s="12"/>
+    </row>
+    <row r="938" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F938" s="12"/>
-    </row>
-    <row r="939" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G938" s="12"/>
+    </row>
+    <row r="939" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F939" s="12"/>
-    </row>
-    <row r="940" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G939" s="12"/>
+    </row>
+    <row r="940" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F940" s="12"/>
-    </row>
-    <row r="941" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G940" s="12"/>
+    </row>
+    <row r="941" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F941" s="12"/>
-    </row>
-    <row r="942" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G941" s="12"/>
+    </row>
+    <row r="942" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F942" s="12"/>
-    </row>
-    <row r="943" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G942" s="12"/>
+    </row>
+    <row r="943" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F943" s="12"/>
-    </row>
-    <row r="944" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G943" s="12"/>
+    </row>
+    <row r="944" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F944" s="12"/>
-    </row>
-    <row r="945" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G944" s="12"/>
+    </row>
+    <row r="945" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F945" s="12"/>
-    </row>
-    <row r="946" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G945" s="12"/>
+    </row>
+    <row r="946" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F946" s="12"/>
-    </row>
-    <row r="947" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G946" s="12"/>
+    </row>
+    <row r="947" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F947" s="12"/>
-    </row>
-    <row r="948" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G947" s="12"/>
+    </row>
+    <row r="948" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F948" s="12"/>
-    </row>
-    <row r="949" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G948" s="12"/>
+    </row>
+    <row r="949" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F949" s="12"/>
-    </row>
-    <row r="950" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G949" s="12"/>
+    </row>
+    <row r="950" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F950" s="12"/>
-    </row>
-    <row r="951" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G950" s="12"/>
+    </row>
+    <row r="951" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F951" s="12"/>
-    </row>
-    <row r="952" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G951" s="12"/>
+    </row>
+    <row r="952" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F952" s="12"/>
-    </row>
-    <row r="953" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G952" s="12"/>
+    </row>
+    <row r="953" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F953" s="12"/>
-    </row>
-    <row r="954" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G953" s="12"/>
+    </row>
+    <row r="954" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F954" s="12"/>
-    </row>
-    <row r="955" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G954" s="12"/>
+    </row>
+    <row r="955" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F955" s="12"/>
-    </row>
-    <row r="956" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G955" s="12"/>
+    </row>
+    <row r="956" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F956" s="12"/>
-    </row>
-    <row r="957" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G956" s="12"/>
+    </row>
+    <row r="957" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F957" s="12"/>
-    </row>
-    <row r="958" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G957" s="12"/>
+    </row>
+    <row r="958" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F958" s="12"/>
-    </row>
-    <row r="959" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G958" s="12"/>
+    </row>
+    <row r="959" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F959" s="12"/>
-    </row>
-    <row r="960" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G959" s="12"/>
+    </row>
+    <row r="960" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F960" s="12"/>
-    </row>
-    <row r="961" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G960" s="12"/>
+    </row>
+    <row r="961" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F961" s="12"/>
-    </row>
-    <row r="962" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G961" s="12"/>
+    </row>
+    <row r="962" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F962" s="12"/>
-    </row>
-    <row r="963" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G962" s="12"/>
+    </row>
+    <row r="963" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F963" s="12"/>
-    </row>
-    <row r="964" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G963" s="12"/>
+    </row>
+    <row r="964" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F964" s="12"/>
-    </row>
-    <row r="965" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G964" s="12"/>
+    </row>
+    <row r="965" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F965" s="12"/>
-    </row>
-    <row r="966" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G965" s="12"/>
+    </row>
+    <row r="966" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F966" s="12"/>
-    </row>
-    <row r="967" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G966" s="12"/>
+    </row>
+    <row r="967" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F967" s="12"/>
-    </row>
-    <row r="968" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G967" s="12"/>
+    </row>
+    <row r="968" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F968" s="12"/>
-    </row>
-    <row r="969" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G968" s="12"/>
+    </row>
+    <row r="969" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F969" s="12"/>
-    </row>
-    <row r="970" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G969" s="12"/>
+    </row>
+    <row r="970" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F970" s="12"/>
-    </row>
-    <row r="971" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G970" s="12"/>
+    </row>
+    <row r="971" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F971" s="12"/>
-    </row>
-    <row r="972" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G971" s="12"/>
+    </row>
+    <row r="972" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F972" s="12"/>
-    </row>
-    <row r="973" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G972" s="12"/>
+    </row>
+    <row r="973" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F973" s="12"/>
-    </row>
-    <row r="974" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G973" s="12"/>
+    </row>
+    <row r="974" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F974" s="12"/>
-    </row>
-    <row r="975" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G974" s="12"/>
+    </row>
+    <row r="975" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F975" s="12"/>
-    </row>
-    <row r="976" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G975" s="12"/>
+    </row>
+    <row r="976" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F976" s="12"/>
-    </row>
-    <row r="977" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G976" s="12"/>
+    </row>
+    <row r="977" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F977" s="12"/>
-    </row>
-    <row r="978" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G977" s="12"/>
+    </row>
+    <row r="978" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F978" s="12"/>
-    </row>
-    <row r="979" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G978" s="12"/>
+    </row>
+    <row r="979" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F979" s="12"/>
-    </row>
-    <row r="980" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G979" s="12"/>
+    </row>
+    <row r="980" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F980" s="12"/>
-    </row>
-    <row r="981" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G980" s="12"/>
+    </row>
+    <row r="981" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F981" s="12"/>
-    </row>
-    <row r="982" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G981" s="12"/>
+    </row>
+    <row r="982" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F982" s="12"/>
-    </row>
-    <row r="983" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G982" s="12"/>
+    </row>
+    <row r="983" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F983" s="12"/>
-    </row>
-    <row r="984" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G983" s="12"/>
+    </row>
+    <row r="984" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F984" s="12"/>
-    </row>
-    <row r="985" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G984" s="12"/>
+    </row>
+    <row r="985" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F985" s="12"/>
-    </row>
-    <row r="986" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G985" s="12"/>
+    </row>
+    <row r="986" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F986" s="12"/>
-    </row>
-    <row r="987" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G986" s="12"/>
+    </row>
+    <row r="987" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F987" s="12"/>
-    </row>
-    <row r="988" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G987" s="12"/>
+    </row>
+    <row r="988" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F988" s="12"/>
-    </row>
-    <row r="989" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G988" s="12"/>
+    </row>
+    <row r="989" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F989" s="12"/>
-    </row>
-    <row r="990" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G989" s="12"/>
+    </row>
+    <row r="990" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F990" s="12"/>
-    </row>
-    <row r="991" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G990" s="12"/>
+    </row>
+    <row r="991" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F991" s="12"/>
-    </row>
-    <row r="992" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G991" s="12"/>
+    </row>
+    <row r="992" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F992" s="12"/>
-    </row>
-    <row r="993" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G992" s="12"/>
+    </row>
+    <row r="993" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F993" s="12"/>
-    </row>
-    <row r="994" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G993" s="12"/>
+    </row>
+    <row r="994" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F994" s="12"/>
-    </row>
-    <row r="995" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G994" s="12"/>
+    </row>
+    <row r="995" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F995" s="12"/>
-    </row>
-    <row r="996" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G995" s="12"/>
+    </row>
+    <row r="996" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F996" s="12"/>
-    </row>
-    <row r="997" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G996" s="12"/>
+    </row>
+    <row r="997" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F997" s="12"/>
-    </row>
-    <row r="998" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G997" s="12"/>
+    </row>
+    <row r="998" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F998" s="12"/>
-    </row>
-    <row r="999" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G998" s="12"/>
+    </row>
+    <row r="999" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F999" s="12"/>
-    </row>
-    <row r="1000" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G999" s="12"/>
+    </row>
+    <row r="1000" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F1000" s="12"/>
+      <c r="G1000" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7818,18 +9068,18 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="24" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="24" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
   </sheetData>
